--- a/data/weekly_update/2017/2017_week_3_standings.xlsx
+++ b/data/weekly_update/2017/2017_week_3_standings.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="759" uniqueCount="106">
   <si>
     <t>Rank</t>
   </si>
@@ -75,13 +75,19 @@
     <t>Total Points</t>
   </si>
   <si>
+    <t>Looney</t>
+  </si>
+  <si>
     <t>O'Leary</t>
   </si>
   <si>
     <t>Julian</t>
   </si>
   <si>
-    <t>Looney</t>
+    <t>Taylor</t>
+  </si>
+  <si>
+    <t>Bandit</t>
   </si>
   <si>
     <t>Zack</t>
@@ -90,31 +96,25 @@
     <t>Bagley</t>
   </si>
   <si>
-    <t>Bandit</t>
+    <t>Levine</t>
+  </si>
+  <si>
+    <t>Pacillo</t>
+  </si>
+  <si>
+    <t>Gillen</t>
+  </si>
+  <si>
+    <t>Stearns</t>
+  </si>
+  <si>
+    <t>Ralph</t>
   </si>
   <si>
     <t>Fed</t>
   </si>
   <si>
     <t>Kane</t>
-  </si>
-  <si>
-    <t>Pacillo</t>
-  </si>
-  <si>
-    <t>Taylor</t>
-  </si>
-  <si>
-    <t>Ralph</t>
-  </si>
-  <si>
-    <t>Gillen</t>
-  </si>
-  <si>
-    <t>Levine</t>
-  </si>
-  <si>
-    <t>Stearns</t>
   </si>
   <si>
     <t>Hardardt</t>
@@ -785,22 +785,22 @@
         <v>0.75</v>
       </c>
       <c r="F2" s="4">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="G2" s="4">
+        <v>7</v>
+      </c>
+      <c r="H2" s="4">
+        <v>2.25</v>
+      </c>
+      <c r="I2" s="4">
+        <v>0</v>
+      </c>
+      <c r="J2" s="4">
         <v>6</v>
       </c>
-      <c r="H2" s="4">
-        <v>0</v>
-      </c>
-      <c r="I2" s="4">
-        <v>0</v>
-      </c>
-      <c r="J2" s="4">
-        <v>2</v>
-      </c>
       <c r="K2" s="4">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="L2" s="4">
         <v>0</v>
@@ -809,19 +809,19 @@
         <v>0</v>
       </c>
       <c r="N2" s="4">
-        <v>0.3888888888888886</v>
+        <v>1.804761904761905</v>
       </c>
       <c r="O2" s="4">
-        <v>-0.7333333333333333</v>
+        <v>0.675</v>
       </c>
       <c r="P2" s="4">
-        <v>0.3</v>
+        <v>0.9000000000000001</v>
       </c>
       <c r="Q2" s="4">
         <v>0</v>
       </c>
       <c r="R2" s="4">
-        <v>8.705555555555557</v>
+        <v>20.27976190476191</v>
       </c>
     </row>
     <row r="3" spans="1:18">
@@ -835,28 +835,28 @@
         <v>0</v>
       </c>
       <c r="D3" s="4">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="E3" s="4">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="F3" s="4">
         <v>0</v>
       </c>
       <c r="G3" s="4">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="H3" s="4">
-        <v>0.75</v>
+        <v>1.5</v>
       </c>
       <c r="I3" s="4">
         <v>0</v>
       </c>
       <c r="J3" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K3" s="4">
-        <v>0.75</v>
+        <v>1.5</v>
       </c>
       <c r="L3" s="4">
         <v>0</v>
@@ -865,19 +865,19 @@
         <v>0</v>
       </c>
       <c r="N3" s="4">
-        <v>0.03999999999999986</v>
+        <v>1.738888888888889</v>
       </c>
       <c r="O3" s="4">
-        <v>-0.1</v>
+        <v>-2.483333333333333</v>
       </c>
       <c r="P3" s="4">
-        <v>0.5</v>
+        <v>0.9000000000000001</v>
       </c>
       <c r="Q3" s="4">
         <v>0</v>
       </c>
       <c r="R3" s="4">
-        <v>7.24</v>
+        <v>17.15555555555556</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -891,29 +891,29 @@
         <v>0</v>
       </c>
       <c r="D4" s="4">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="E4" s="4">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="F4" s="4">
         <v>0</v>
       </c>
       <c r="G4" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H4" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="I4" s="4">
+        <v>0</v>
+      </c>
+      <c r="J4" s="4">
+        <v>5</v>
+      </c>
+      <c r="K4" s="4">
         <v>0.75</v>
       </c>
-      <c r="I4" s="4">
-        <v>0</v>
-      </c>
-      <c r="J4" s="4">
-        <v>2</v>
-      </c>
-      <c r="K4" s="4">
-        <v>0</v>
-      </c>
       <c r="L4" s="4">
         <v>0</v>
       </c>
@@ -921,19 +921,19 @@
         <v>0</v>
       </c>
       <c r="N4" s="4">
-        <v>1.033333333333334</v>
+        <v>0.5199999999999997</v>
       </c>
       <c r="O4" s="4">
-        <v>0.35</v>
+        <v>0.4</v>
       </c>
       <c r="P4" s="4">
-        <v>0.7000000000000001</v>
+        <v>0.9</v>
       </c>
       <c r="Q4" s="4">
         <v>0</v>
       </c>
       <c r="R4" s="4">
-        <v>7.083333333333332</v>
+        <v>14.87</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -950,46 +950,46 @@
         <v>0</v>
       </c>
       <c r="E5" s="4">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="F5" s="4">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="G5" s="4">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H5" s="4">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="I5" s="4">
         <v>0</v>
       </c>
       <c r="J5" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K5" s="4">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="L5" s="4">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="M5" s="4">
         <v>0</v>
       </c>
       <c r="N5" s="4">
-        <v>0.45</v>
+        <v>1.182142857142857</v>
       </c>
       <c r="O5" s="4">
-        <v>0.3</v>
+        <v>0.6333333333333334</v>
       </c>
       <c r="P5" s="4">
-        <v>0.1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="Q5" s="4">
         <v>0</v>
       </c>
       <c r="R5" s="4">
-        <v>6.1</v>
+        <v>14.31547619047619</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -1003,13 +1003,13 @@
         <v>0</v>
       </c>
       <c r="D6" s="4">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="E6" s="4">
-        <v>0.75</v>
+        <v>1.75</v>
       </c>
       <c r="F6" s="4">
-        <v>0.15</v>
+        <v>0.6</v>
       </c>
       <c r="G6" s="4">
         <v>2</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="J6" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K6" s="4">
         <v>0.75</v>
@@ -1033,19 +1033,19 @@
         <v>0</v>
       </c>
       <c r="N6" s="4">
-        <v>-0.08571428571428541</v>
+        <v>-0.1</v>
       </c>
       <c r="O6" s="4">
-        <v>-0.4333333333333334</v>
+        <v>1.2</v>
       </c>
       <c r="P6" s="4">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="Q6" s="4">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R6" s="4">
-        <v>5.830952380952382</v>
+        <v>12.4</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -1059,16 +1059,16 @@
         <v>0</v>
       </c>
       <c r="D7" s="4">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="E7" s="4">
         <v>1</v>
       </c>
       <c r="F7" s="4">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="G7" s="4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H7" s="4">
         <v>0</v>
@@ -1077,10 +1077,10 @@
         <v>0</v>
       </c>
       <c r="J7" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K7" s="4">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="L7" s="4">
         <v>0</v>
@@ -1089,19 +1089,19 @@
         <v>0</v>
       </c>
       <c r="N7" s="4">
-        <v>-0.1714285714285715</v>
+        <v>0.4700000000000003</v>
       </c>
       <c r="O7" s="4">
-        <v>0.3</v>
+        <v>-0.4</v>
       </c>
       <c r="P7" s="4">
-        <v>0.3</v>
+        <v>0.7000000000000001</v>
       </c>
       <c r="Q7" s="4">
         <v>0</v>
       </c>
       <c r="R7" s="4">
-        <v>5.728571428571428</v>
+        <v>11.92</v>
       </c>
     </row>
     <row r="8" spans="1:18">
@@ -1115,49 +1115,49 @@
         <v>0</v>
       </c>
       <c r="D8" s="4">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="E8" s="4">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="F8" s="4">
         <v>0.3</v>
       </c>
       <c r="G8" s="4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H8" s="4">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="I8" s="4">
         <v>0</v>
       </c>
       <c r="J8" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K8" s="4">
         <v>0.75</v>
       </c>
       <c r="L8" s="4">
+        <v>0</v>
+      </c>
+      <c r="M8" s="4">
+        <v>0</v>
+      </c>
+      <c r="N8" s="4">
+        <v>0.2642857142857146</v>
+      </c>
+      <c r="O8" s="4">
+        <v>-0.5533333333333333</v>
+      </c>
+      <c r="P8" s="4">
         <v>0.5</v>
       </c>
-      <c r="M8" s="4">
-        <v>0</v>
-      </c>
-      <c r="N8" s="4">
-        <v>-0.35</v>
-      </c>
-      <c r="O8" s="4">
-        <v>0.8</v>
-      </c>
-      <c r="P8" s="4">
-        <v>0.3</v>
-      </c>
       <c r="Q8" s="4">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R8" s="4">
-        <v>5.55</v>
+        <v>10.66095238095238</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -1177,22 +1177,22 @@
         <v>0.75</v>
       </c>
       <c r="F9" s="4">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="G9" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H9" s="4">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="I9" s="4">
         <v>0</v>
       </c>
       <c r="J9" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K9" s="4">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="L9" s="4">
         <v>0</v>
@@ -1201,19 +1201,19 @@
         <v>0</v>
       </c>
       <c r="N9" s="4">
-        <v>-0.375</v>
+        <v>-0.1733333333333335</v>
       </c>
       <c r="O9" s="4">
-        <v>0</v>
+        <v>-0.15</v>
       </c>
       <c r="P9" s="4">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="Q9" s="4">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R9" s="4">
-        <v>4.875</v>
+        <v>10.52666666666667</v>
       </c>
     </row>
     <row r="10" spans="1:18">
@@ -1227,10 +1227,10 @@
         <v>0</v>
       </c>
       <c r="D10" s="4">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="E10" s="4">
-        <v>0.5</v>
+        <v>1.25</v>
       </c>
       <c r="F10" s="4">
         <v>0.15</v>
@@ -1245,10 +1245,10 @@
         <v>0</v>
       </c>
       <c r="J10" s="4">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K10" s="4">
-        <v>1.5</v>
+        <v>2.25</v>
       </c>
       <c r="L10" s="4">
         <v>0.5</v>
@@ -1257,19 +1257,19 @@
         <v>0.25</v>
       </c>
       <c r="N10" s="4">
-        <v>-0.6399999999999999</v>
+        <v>-1.08</v>
       </c>
       <c r="O10" s="4">
-        <v>-0.3</v>
+        <v>0.6</v>
       </c>
       <c r="P10" s="4">
-        <v>0.6000000000000001</v>
+        <v>0.9000000000000001</v>
       </c>
       <c r="Q10" s="4">
         <v>0</v>
       </c>
       <c r="R10" s="4">
-        <v>4.56</v>
+        <v>10.22</v>
       </c>
     </row>
     <row r="11" spans="1:18">
@@ -1286,13 +1286,13 @@
         <v>0</v>
       </c>
       <c r="E11" s="4">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="F11" s="4">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="G11" s="4">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H11" s="4">
         <v>0.75</v>
@@ -1301,10 +1301,10 @@
         <v>0</v>
       </c>
       <c r="J11" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K11" s="4">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="L11" s="4">
         <v>0</v>
@@ -1313,19 +1313,19 @@
         <v>0</v>
       </c>
       <c r="N11" s="4">
-        <v>0.7250000000000001</v>
+        <v>0.9200000000000004</v>
       </c>
       <c r="O11" s="4">
-        <v>0.2666666666666667</v>
+        <v>-1.85</v>
       </c>
       <c r="P11" s="4">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="Q11" s="4">
         <v>0</v>
       </c>
       <c r="R11" s="4">
-        <v>4.191666666666666</v>
+        <v>9.870000000000001</v>
       </c>
     </row>
     <row r="12" spans="1:18">
@@ -1339,25 +1339,25 @@
         <v>0</v>
       </c>
       <c r="D12" s="4">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="E12" s="4">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="F12" s="4">
         <v>0.15</v>
       </c>
       <c r="G12" s="4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H12" s="4">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="I12" s="4">
         <v>0</v>
       </c>
       <c r="J12" s="4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K12" s="4">
         <v>0.75</v>
@@ -1369,19 +1369,19 @@
         <v>0</v>
       </c>
       <c r="N12" s="4">
-        <v>0.05</v>
+        <v>-0.7666666666666665</v>
       </c>
       <c r="O12" s="4">
-        <v>0.25</v>
+        <v>-0.4666666666666668</v>
       </c>
       <c r="P12" s="4">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="Q12" s="4">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R12" s="4">
-        <v>3.6</v>
+        <v>9.566666666666666</v>
       </c>
     </row>
     <row r="13" spans="1:18">
@@ -1398,16 +1398,16 @@
         <v>0</v>
       </c>
       <c r="E13" s="4">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F13" s="4">
         <v>0.15</v>
       </c>
       <c r="G13" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H13" s="4">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="I13" s="4">
         <v>0</v>
@@ -1416,7 +1416,7 @@
         <v>1</v>
       </c>
       <c r="K13" s="4">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="L13" s="4">
         <v>0</v>
@@ -1425,19 +1425,19 @@
         <v>0</v>
       </c>
       <c r="N13" s="4">
-        <v>0.4200000000000003</v>
+        <v>1.2</v>
       </c>
       <c r="O13" s="4">
-        <v>-1.85</v>
+        <v>0.7</v>
       </c>
       <c r="P13" s="4">
-        <v>0.2</v>
+        <v>1.1</v>
       </c>
       <c r="Q13" s="4">
         <v>0</v>
       </c>
       <c r="R13" s="4">
-        <v>3.42</v>
+        <v>7.650000000000002</v>
       </c>
     </row>
     <row r="14" spans="1:18">
@@ -1451,16 +1451,16 @@
         <v>0</v>
       </c>
       <c r="D14" s="4">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="E14" s="4">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="F14" s="4">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="G14" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H14" s="4">
         <v>0</v>
@@ -1472,28 +1472,28 @@
         <v>2</v>
       </c>
       <c r="K14" s="4">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="L14" s="4">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="M14" s="4">
         <v>0</v>
       </c>
       <c r="N14" s="4">
-        <v>-0.5333333333333335</v>
+        <v>-0.55</v>
       </c>
       <c r="O14" s="4">
-        <v>-0.4</v>
+        <v>0.5</v>
       </c>
       <c r="P14" s="4">
-        <v>0.4</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="Q14" s="4">
         <v>0</v>
       </c>
       <c r="R14" s="4">
-        <v>2.866666666666666</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:18">
@@ -1510,10 +1510,10 @@
         <v>0</v>
       </c>
       <c r="E15" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15" s="4">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="G15" s="4">
         <v>1</v>
@@ -1525,10 +1525,10 @@
         <v>0</v>
       </c>
       <c r="J15" s="4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K15" s="4">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="L15" s="4">
         <v>0</v>
@@ -1537,19 +1537,19 @@
         <v>0</v>
       </c>
       <c r="N15" s="4">
-        <v>-0.8</v>
+        <v>-0.325</v>
       </c>
       <c r="O15" s="4">
-        <v>-0.7000000000000001</v>
+        <v>-0.1</v>
       </c>
       <c r="P15" s="4">
-        <v>0.6000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="Q15" s="4">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R15" s="4">
-        <v>1.5</v>
+        <v>6.675</v>
       </c>
     </row>
     <row r="16" spans="1:18">
@@ -1563,16 +1563,16 @@
         <v>0</v>
       </c>
       <c r="D16" s="4">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="E16" s="4">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="F16" s="4">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="G16" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H16" s="4">
         <v>0.75</v>
@@ -1581,7 +1581,7 @@
         <v>0</v>
       </c>
       <c r="J16" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K16" s="4">
         <v>0</v>
@@ -1593,19 +1593,19 @@
         <v>0</v>
       </c>
       <c r="N16" s="4">
-        <v>0.2799999999999997</v>
+        <v>-0.3700000000000003</v>
       </c>
       <c r="O16" s="4">
         <v>-2.466666666666667</v>
       </c>
       <c r="P16" s="4">
-        <v>0.2</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="Q16" s="4">
         <v>0</v>
       </c>
       <c r="R16" s="4">
-        <v>1.163333333333333</v>
+        <v>3.713333333333333</v>
       </c>
     </row>
   </sheetData>
@@ -1615,7 +1615,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U66"/>
+  <dimension ref="A1:U94"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
@@ -3717,7 +3717,7 @@
         <v>2</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>66</v>
@@ -3847,7 +3847,7 @@
         <v>2</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>57</v>
@@ -3977,7 +3977,7 @@
         <v>2</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>47</v>
@@ -4042,7 +4042,7 @@
         <v>2</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>88</v>
@@ -4107,7 +4107,7 @@
         <v>2</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>78</v>
@@ -4302,7 +4302,7 @@
         <v>2</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>68</v>
@@ -4367,7 +4367,7 @@
         <v>2</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>41</v>
@@ -4562,7 +4562,7 @@
         <v>2</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>43</v>
@@ -5017,7 +5017,7 @@
         <v>2</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C53" s="3" t="s">
         <v>72</v>
@@ -5082,7 +5082,7 @@
         <v>2</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C54" s="3" t="s">
         <v>45</v>
@@ -5277,7 +5277,7 @@
         <v>2</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C57" s="3" t="s">
         <v>80</v>
@@ -5472,7 +5472,7 @@
         <v>2</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C60" s="3" t="s">
         <v>82</v>
@@ -5537,7 +5537,7 @@
         <v>2</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C61" s="3" t="s">
         <v>49</v>
@@ -5862,7 +5862,7 @@
         <v>3</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="C66" s="3" t="s">
         <v>80</v>
@@ -5920,6 +5920,1826 @@
       </c>
       <c r="U66" s="5">
         <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:21">
+      <c r="A67" s="3">
+        <v>3</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E67" s="5">
+        <v>7</v>
+      </c>
+      <c r="F67" s="5">
+        <v>311</v>
+      </c>
+      <c r="G67" s="5">
+        <v>0</v>
+      </c>
+      <c r="H67" s="5">
+        <v>1</v>
+      </c>
+      <c r="I67" s="5">
+        <v>1</v>
+      </c>
+      <c r="J67" s="5">
+        <v>1</v>
+      </c>
+      <c r="K67" s="5">
+        <v>2</v>
+      </c>
+      <c r="L67" s="5">
+        <v>1</v>
+      </c>
+      <c r="M67" s="5">
+        <v>0</v>
+      </c>
+      <c r="N67" s="5">
+        <v>1</v>
+      </c>
+      <c r="O67" s="5">
+        <v>0</v>
+      </c>
+      <c r="P67" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q67" s="5">
+        <v>0</v>
+      </c>
+      <c r="R67" s="5">
+        <v>2</v>
+      </c>
+      <c r="S67" s="5">
+        <v>2</v>
+      </c>
+      <c r="T67" s="5">
+        <v>1</v>
+      </c>
+      <c r="U67" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:21">
+      <c r="A68" s="3">
+        <v>3</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E68" s="5">
+        <v>3</v>
+      </c>
+      <c r="F68" s="5">
+        <v>150</v>
+      </c>
+      <c r="G68" s="5">
+        <v>0</v>
+      </c>
+      <c r="H68" s="5">
+        <v>0</v>
+      </c>
+      <c r="I68" s="5">
+        <v>2</v>
+      </c>
+      <c r="J68" s="5">
+        <v>1</v>
+      </c>
+      <c r="K68" s="5">
+        <v>2</v>
+      </c>
+      <c r="L68" s="5">
+        <v>1</v>
+      </c>
+      <c r="M68" s="5">
+        <v>0</v>
+      </c>
+      <c r="N68" s="5">
+        <v>1</v>
+      </c>
+      <c r="O68" s="5">
+        <v>1</v>
+      </c>
+      <c r="P68" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q68" s="5">
+        <v>0</v>
+      </c>
+      <c r="R68" s="5">
+        <v>0</v>
+      </c>
+      <c r="S68" s="5">
+        <v>0</v>
+      </c>
+      <c r="T68" s="5">
+        <v>8</v>
+      </c>
+      <c r="U68" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:21">
+      <c r="A69" s="3">
+        <v>3</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E69" s="5">
+        <v>3</v>
+      </c>
+      <c r="F69" s="5">
+        <v>125</v>
+      </c>
+      <c r="G69" s="5">
+        <v>0</v>
+      </c>
+      <c r="H69" s="5">
+        <v>1</v>
+      </c>
+      <c r="I69" s="5">
+        <v>0</v>
+      </c>
+      <c r="J69" s="5">
+        <v>0</v>
+      </c>
+      <c r="K69" s="5">
+        <v>0</v>
+      </c>
+      <c r="L69" s="5">
+        <v>0</v>
+      </c>
+      <c r="M69" s="5">
+        <v>0</v>
+      </c>
+      <c r="N69" s="5">
+        <v>0</v>
+      </c>
+      <c r="O69" s="5">
+        <v>0</v>
+      </c>
+      <c r="P69" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q69" s="5">
+        <v>0</v>
+      </c>
+      <c r="R69" s="5">
+        <v>2</v>
+      </c>
+      <c r="S69" s="5">
+        <v>20</v>
+      </c>
+      <c r="T69" s="5">
+        <v>4</v>
+      </c>
+      <c r="U69" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:21">
+      <c r="A70" s="3">
+        <v>3</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E70" s="5">
+        <v>5</v>
+      </c>
+      <c r="F70" s="5">
+        <v>226</v>
+      </c>
+      <c r="G70" s="5">
+        <v>0</v>
+      </c>
+      <c r="H70" s="5">
+        <v>1</v>
+      </c>
+      <c r="I70" s="5">
+        <v>3</v>
+      </c>
+      <c r="J70" s="5">
+        <v>0</v>
+      </c>
+      <c r="K70" s="5">
+        <v>2</v>
+      </c>
+      <c r="L70" s="5">
+        <v>0</v>
+      </c>
+      <c r="M70" s="5">
+        <v>0</v>
+      </c>
+      <c r="N70" s="5">
+        <v>2</v>
+      </c>
+      <c r="O70" s="5">
+        <v>1</v>
+      </c>
+      <c r="P70" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q70" s="5">
+        <v>0</v>
+      </c>
+      <c r="R70" s="5">
+        <v>1</v>
+      </c>
+      <c r="S70" s="5">
+        <v>16</v>
+      </c>
+      <c r="T70" s="5">
+        <v>6</v>
+      </c>
+      <c r="U70" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:21">
+      <c r="A71" s="3">
+        <v>3</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="E71" s="5">
+        <v>3</v>
+      </c>
+      <c r="F71" s="5">
+        <v>150</v>
+      </c>
+      <c r="G71" s="5">
+        <v>0</v>
+      </c>
+      <c r="H71" s="5">
+        <v>0</v>
+      </c>
+      <c r="I71" s="5">
+        <v>1</v>
+      </c>
+      <c r="J71" s="5">
+        <v>0</v>
+      </c>
+      <c r="K71" s="5">
+        <v>2</v>
+      </c>
+      <c r="L71" s="5">
+        <v>0</v>
+      </c>
+      <c r="M71" s="5">
+        <v>0</v>
+      </c>
+      <c r="N71" s="5">
+        <v>2</v>
+      </c>
+      <c r="O71" s="5">
+        <v>0</v>
+      </c>
+      <c r="P71" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q71" s="5">
+        <v>0</v>
+      </c>
+      <c r="R71" s="5">
+        <v>2</v>
+      </c>
+      <c r="S71" s="5">
+        <v>12</v>
+      </c>
+      <c r="T71" s="5">
+        <v>6</v>
+      </c>
+      <c r="U71" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:21">
+      <c r="A72" s="3">
+        <v>3</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E72" s="5">
+        <v>3</v>
+      </c>
+      <c r="F72" s="5">
+        <v>129</v>
+      </c>
+      <c r="G72" s="5">
+        <v>0</v>
+      </c>
+      <c r="H72" s="5">
+        <v>1</v>
+      </c>
+      <c r="I72" s="5">
+        <v>1</v>
+      </c>
+      <c r="J72" s="5">
+        <v>0</v>
+      </c>
+      <c r="K72" s="5">
+        <v>1</v>
+      </c>
+      <c r="L72" s="5">
+        <v>0</v>
+      </c>
+      <c r="M72" s="5">
+        <v>0</v>
+      </c>
+      <c r="N72" s="5">
+        <v>0</v>
+      </c>
+      <c r="O72" s="5">
+        <v>0</v>
+      </c>
+      <c r="P72" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q72" s="5">
+        <v>0</v>
+      </c>
+      <c r="R72" s="5">
+        <v>1</v>
+      </c>
+      <c r="S72" s="5">
+        <v>12</v>
+      </c>
+      <c r="T72" s="5">
+        <v>3</v>
+      </c>
+      <c r="U72" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:21">
+      <c r="A73" s="3">
+        <v>3</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E73" s="5">
+        <v>5</v>
+      </c>
+      <c r="F73" s="5">
+        <v>203</v>
+      </c>
+      <c r="G73" s="5">
+        <v>0</v>
+      </c>
+      <c r="H73" s="5">
+        <v>1</v>
+      </c>
+      <c r="I73" s="5">
+        <v>3</v>
+      </c>
+      <c r="J73" s="5">
+        <v>0</v>
+      </c>
+      <c r="K73" s="5">
+        <v>0</v>
+      </c>
+      <c r="L73" s="5">
+        <v>0</v>
+      </c>
+      <c r="M73" s="5">
+        <v>0</v>
+      </c>
+      <c r="N73" s="5">
+        <v>3</v>
+      </c>
+      <c r="O73" s="5">
+        <v>1</v>
+      </c>
+      <c r="P73" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q73" s="5">
+        <v>0</v>
+      </c>
+      <c r="R73" s="5">
+        <v>1</v>
+      </c>
+      <c r="S73" s="5">
+        <v>0</v>
+      </c>
+      <c r="T73" s="5">
+        <v>3</v>
+      </c>
+      <c r="U73" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:21">
+      <c r="A74" s="3">
+        <v>3</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E74" s="5">
+        <v>6</v>
+      </c>
+      <c r="F74" s="5">
+        <v>267</v>
+      </c>
+      <c r="G74" s="5">
+        <v>0</v>
+      </c>
+      <c r="H74" s="5">
+        <v>0</v>
+      </c>
+      <c r="I74" s="5">
+        <v>2</v>
+      </c>
+      <c r="J74" s="5">
+        <v>1</v>
+      </c>
+      <c r="K74" s="5">
+        <v>2</v>
+      </c>
+      <c r="L74" s="5">
+        <v>1</v>
+      </c>
+      <c r="M74" s="5">
+        <v>0</v>
+      </c>
+      <c r="N74" s="5">
+        <v>2</v>
+      </c>
+      <c r="O74" s="5">
+        <v>0</v>
+      </c>
+      <c r="P74" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q74" s="5">
+        <v>0</v>
+      </c>
+      <c r="R74" s="5">
+        <v>3</v>
+      </c>
+      <c r="S74" s="5">
+        <v>15</v>
+      </c>
+      <c r="T74" s="5">
+        <v>3</v>
+      </c>
+      <c r="U74" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:21">
+      <c r="A75" s="3">
+        <v>3</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E75" s="5">
+        <v>5</v>
+      </c>
+      <c r="F75" s="5">
+        <v>239</v>
+      </c>
+      <c r="G75" s="5">
+        <v>0</v>
+      </c>
+      <c r="H75" s="5">
+        <v>0</v>
+      </c>
+      <c r="I75" s="5">
+        <v>2</v>
+      </c>
+      <c r="J75" s="5">
+        <v>0</v>
+      </c>
+      <c r="K75" s="5">
+        <v>1</v>
+      </c>
+      <c r="L75" s="5">
+        <v>0</v>
+      </c>
+      <c r="M75" s="5">
+        <v>0</v>
+      </c>
+      <c r="N75" s="5">
+        <v>1</v>
+      </c>
+      <c r="O75" s="5">
+        <v>1</v>
+      </c>
+      <c r="P75" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q75" s="5">
+        <v>0</v>
+      </c>
+      <c r="R75" s="5">
+        <v>2</v>
+      </c>
+      <c r="S75" s="5">
+        <v>38</v>
+      </c>
+      <c r="T75" s="5">
+        <v>5</v>
+      </c>
+      <c r="U75" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:21">
+      <c r="A76" s="3">
+        <v>3</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E76" s="5">
+        <v>2</v>
+      </c>
+      <c r="F76" s="5">
+        <v>91</v>
+      </c>
+      <c r="G76" s="5">
+        <v>0</v>
+      </c>
+      <c r="H76" s="5">
+        <v>0</v>
+      </c>
+      <c r="I76" s="5">
+        <v>1</v>
+      </c>
+      <c r="J76" s="5">
+        <v>0</v>
+      </c>
+      <c r="K76" s="5">
+        <v>0</v>
+      </c>
+      <c r="L76" s="5">
+        <v>0</v>
+      </c>
+      <c r="M76" s="5">
+        <v>0</v>
+      </c>
+      <c r="N76" s="5">
+        <v>1</v>
+      </c>
+      <c r="O76" s="5">
+        <v>0</v>
+      </c>
+      <c r="P76" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q76" s="5">
+        <v>0</v>
+      </c>
+      <c r="R76" s="5">
+        <v>1</v>
+      </c>
+      <c r="S76" s="5">
+        <v>10</v>
+      </c>
+      <c r="T76" s="5">
+        <v>6</v>
+      </c>
+      <c r="U76" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:21">
+      <c r="A77" s="3">
+        <v>3</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E77" s="5">
+        <v>7</v>
+      </c>
+      <c r="F77" s="5">
+        <v>320</v>
+      </c>
+      <c r="G77" s="5">
+        <v>0</v>
+      </c>
+      <c r="H77" s="5">
+        <v>1</v>
+      </c>
+      <c r="I77" s="5">
+        <v>3</v>
+      </c>
+      <c r="J77" s="5">
+        <v>2</v>
+      </c>
+      <c r="K77" s="5">
+        <v>1</v>
+      </c>
+      <c r="L77" s="5">
+        <v>0</v>
+      </c>
+      <c r="M77" s="5">
+        <v>0</v>
+      </c>
+      <c r="N77" s="5">
+        <v>2</v>
+      </c>
+      <c r="O77" s="5">
+        <v>1</v>
+      </c>
+      <c r="P77" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q77" s="5">
+        <v>0</v>
+      </c>
+      <c r="R77" s="5">
+        <v>1</v>
+      </c>
+      <c r="S77" s="5">
+        <v>0</v>
+      </c>
+      <c r="T77" s="5">
+        <v>5</v>
+      </c>
+      <c r="U77" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:21">
+      <c r="A78" s="3">
+        <v>3</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E78" s="5">
+        <v>7</v>
+      </c>
+      <c r="F78" s="5">
+        <v>347</v>
+      </c>
+      <c r="G78" s="5">
+        <v>0</v>
+      </c>
+      <c r="H78" s="5">
+        <v>0</v>
+      </c>
+      <c r="I78" s="5">
+        <v>2</v>
+      </c>
+      <c r="J78" s="5">
+        <v>1</v>
+      </c>
+      <c r="K78" s="5">
+        <v>4</v>
+      </c>
+      <c r="L78" s="5">
+        <v>0</v>
+      </c>
+      <c r="M78" s="5">
+        <v>0</v>
+      </c>
+      <c r="N78" s="5">
+        <v>3</v>
+      </c>
+      <c r="O78" s="5">
+        <v>1</v>
+      </c>
+      <c r="P78" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q78" s="5">
+        <v>0</v>
+      </c>
+      <c r="R78" s="5">
+        <v>3</v>
+      </c>
+      <c r="S78" s="5">
+        <v>16</v>
+      </c>
+      <c r="T78" s="5">
+        <v>4</v>
+      </c>
+      <c r="U78" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:21">
+      <c r="A79" s="3">
+        <v>3</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="E79" s="5">
+        <v>3</v>
+      </c>
+      <c r="F79" s="5">
+        <v>121</v>
+      </c>
+      <c r="G79" s="5">
+        <v>0</v>
+      </c>
+      <c r="H79" s="5">
+        <v>0</v>
+      </c>
+      <c r="I79" s="5">
+        <v>3</v>
+      </c>
+      <c r="J79" s="5">
+        <v>0</v>
+      </c>
+      <c r="K79" s="5">
+        <v>0</v>
+      </c>
+      <c r="L79" s="5">
+        <v>0</v>
+      </c>
+      <c r="M79" s="5">
+        <v>0</v>
+      </c>
+      <c r="N79" s="5">
+        <v>1</v>
+      </c>
+      <c r="O79" s="5">
+        <v>0</v>
+      </c>
+      <c r="P79" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q79" s="5">
+        <v>0</v>
+      </c>
+      <c r="R79" s="5">
+        <v>0</v>
+      </c>
+      <c r="S79" s="5">
+        <v>0</v>
+      </c>
+      <c r="T79" s="5">
+        <v>6</v>
+      </c>
+      <c r="U79" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:21">
+      <c r="A80" s="3">
+        <v>3</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E80" s="5">
+        <v>4</v>
+      </c>
+      <c r="F80" s="5">
+        <v>163</v>
+      </c>
+      <c r="G80" s="5">
+        <v>0</v>
+      </c>
+      <c r="H80" s="5">
+        <v>0</v>
+      </c>
+      <c r="I80" s="5">
+        <v>3</v>
+      </c>
+      <c r="J80" s="5">
+        <v>0</v>
+      </c>
+      <c r="K80" s="5">
+        <v>0</v>
+      </c>
+      <c r="L80" s="5">
+        <v>0</v>
+      </c>
+      <c r="M80" s="5">
+        <v>0</v>
+      </c>
+      <c r="N80" s="5">
+        <v>0</v>
+      </c>
+      <c r="O80" s="5">
+        <v>0</v>
+      </c>
+      <c r="P80" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q80" s="5">
+        <v>0</v>
+      </c>
+      <c r="R80" s="5">
+        <v>0</v>
+      </c>
+      <c r="S80" s="5">
+        <v>0</v>
+      </c>
+      <c r="T80" s="5">
+        <v>3</v>
+      </c>
+      <c r="U80" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:21">
+      <c r="A81" s="3">
+        <v>3</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E81" s="5">
+        <v>4</v>
+      </c>
+      <c r="F81" s="5">
+        <v>234</v>
+      </c>
+      <c r="G81" s="5">
+        <v>0</v>
+      </c>
+      <c r="H81" s="5">
+        <v>0</v>
+      </c>
+      <c r="I81" s="5">
+        <v>1</v>
+      </c>
+      <c r="J81" s="5">
+        <v>0</v>
+      </c>
+      <c r="K81" s="5">
+        <v>3</v>
+      </c>
+      <c r="L81" s="5">
+        <v>2</v>
+      </c>
+      <c r="M81" s="5">
+        <v>0</v>
+      </c>
+      <c r="N81" s="5">
+        <v>2</v>
+      </c>
+      <c r="O81" s="5">
+        <v>2</v>
+      </c>
+      <c r="P81" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q81" s="5">
+        <v>0</v>
+      </c>
+      <c r="R81" s="5">
+        <v>2</v>
+      </c>
+      <c r="S81" s="5">
+        <v>53</v>
+      </c>
+      <c r="T81" s="5">
+        <v>6</v>
+      </c>
+      <c r="U81" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:21">
+      <c r="A82" s="3">
+        <v>3</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E82" s="5">
+        <v>6</v>
+      </c>
+      <c r="F82" s="5">
+        <v>272</v>
+      </c>
+      <c r="G82" s="5">
+        <v>0</v>
+      </c>
+      <c r="H82" s="5">
+        <v>1</v>
+      </c>
+      <c r="I82" s="5">
+        <v>1</v>
+      </c>
+      <c r="J82" s="5">
+        <v>0</v>
+      </c>
+      <c r="K82" s="5">
+        <v>3</v>
+      </c>
+      <c r="L82" s="5">
+        <v>1</v>
+      </c>
+      <c r="M82" s="5">
+        <v>0</v>
+      </c>
+      <c r="N82" s="5">
+        <v>3</v>
+      </c>
+      <c r="O82" s="5">
+        <v>0</v>
+      </c>
+      <c r="P82" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q82" s="5">
+        <v>0</v>
+      </c>
+      <c r="R82" s="5">
+        <v>3</v>
+      </c>
+      <c r="S82" s="5">
+        <v>20</v>
+      </c>
+      <c r="T82" s="5">
+        <v>4</v>
+      </c>
+      <c r="U82" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:21">
+      <c r="A83" s="3">
+        <v>3</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D83" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E83" s="5">
+        <v>5</v>
+      </c>
+      <c r="F83" s="5">
+        <v>243</v>
+      </c>
+      <c r="G83" s="5">
+        <v>0</v>
+      </c>
+      <c r="H83" s="5">
+        <v>0</v>
+      </c>
+      <c r="I83" s="5">
+        <v>2</v>
+      </c>
+      <c r="J83" s="5">
+        <v>1</v>
+      </c>
+      <c r="K83" s="5">
+        <v>2</v>
+      </c>
+      <c r="L83" s="5">
+        <v>1</v>
+      </c>
+      <c r="M83" s="5">
+        <v>0</v>
+      </c>
+      <c r="N83" s="5">
+        <v>3</v>
+      </c>
+      <c r="O83" s="5">
+        <v>1</v>
+      </c>
+      <c r="P83" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q83" s="5">
+        <v>0</v>
+      </c>
+      <c r="R83" s="5">
+        <v>2</v>
+      </c>
+      <c r="S83" s="5">
+        <v>13</v>
+      </c>
+      <c r="T83" s="5">
+        <v>4</v>
+      </c>
+      <c r="U83" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:21">
+      <c r="A84" s="3">
+        <v>3</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D84" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="E84" s="5">
+        <v>7</v>
+      </c>
+      <c r="F84" s="5">
+        <v>333</v>
+      </c>
+      <c r="G84" s="5">
+        <v>0</v>
+      </c>
+      <c r="H84" s="5">
+        <v>1</v>
+      </c>
+      <c r="I84" s="5">
+        <v>1</v>
+      </c>
+      <c r="J84" s="5">
+        <v>0</v>
+      </c>
+      <c r="K84" s="5">
+        <v>2</v>
+      </c>
+      <c r="L84" s="5">
+        <v>1</v>
+      </c>
+      <c r="M84" s="5">
+        <v>0</v>
+      </c>
+      <c r="N84" s="5">
+        <v>1</v>
+      </c>
+      <c r="O84" s="5">
+        <v>0</v>
+      </c>
+      <c r="P84" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q84" s="5">
+        <v>0</v>
+      </c>
+      <c r="R84" s="5">
+        <v>4</v>
+      </c>
+      <c r="S84" s="5">
+        <v>31</v>
+      </c>
+      <c r="T84" s="5">
+        <v>0</v>
+      </c>
+      <c r="U84" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:21">
+      <c r="A85" s="3">
+        <v>3</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D85" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E85" s="5">
+        <v>4</v>
+      </c>
+      <c r="F85" s="5">
+        <v>182</v>
+      </c>
+      <c r="G85" s="5">
+        <v>0</v>
+      </c>
+      <c r="H85" s="5">
+        <v>1</v>
+      </c>
+      <c r="I85" s="5">
+        <v>1</v>
+      </c>
+      <c r="J85" s="5">
+        <v>1</v>
+      </c>
+      <c r="K85" s="5">
+        <v>1</v>
+      </c>
+      <c r="L85" s="5">
+        <v>0</v>
+      </c>
+      <c r="M85" s="5">
+        <v>0</v>
+      </c>
+      <c r="N85" s="5">
+        <v>0</v>
+      </c>
+      <c r="O85" s="5">
+        <v>0</v>
+      </c>
+      <c r="P85" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q85" s="5">
+        <v>0</v>
+      </c>
+      <c r="R85" s="5">
+        <v>1</v>
+      </c>
+      <c r="S85" s="5">
+        <v>0</v>
+      </c>
+      <c r="T85" s="5">
+        <v>5</v>
+      </c>
+      <c r="U85" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:21">
+      <c r="A86" s="3">
+        <v>3</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D86" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="E86" s="5">
+        <v>4</v>
+      </c>
+      <c r="F86" s="5">
+        <v>154</v>
+      </c>
+      <c r="G86" s="5">
+        <v>0</v>
+      </c>
+      <c r="H86" s="5">
+        <v>1</v>
+      </c>
+      <c r="I86" s="5">
+        <v>1</v>
+      </c>
+      <c r="J86" s="5">
+        <v>1</v>
+      </c>
+      <c r="K86" s="5">
+        <v>1</v>
+      </c>
+      <c r="L86" s="5">
+        <v>0</v>
+      </c>
+      <c r="M86" s="5">
+        <v>0</v>
+      </c>
+      <c r="N86" s="5">
+        <v>1</v>
+      </c>
+      <c r="O86" s="5">
+        <v>0</v>
+      </c>
+      <c r="P86" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q86" s="5">
+        <v>0</v>
+      </c>
+      <c r="R86" s="5">
+        <v>1</v>
+      </c>
+      <c r="S86" s="5">
+        <v>9</v>
+      </c>
+      <c r="T86" s="5">
+        <v>4</v>
+      </c>
+      <c r="U86" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:21">
+      <c r="A87" s="3">
+        <v>3</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D87" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E87" s="5">
+        <v>6</v>
+      </c>
+      <c r="F87" s="5">
+        <v>341</v>
+      </c>
+      <c r="G87" s="5">
+        <v>0</v>
+      </c>
+      <c r="H87" s="5">
+        <v>1</v>
+      </c>
+      <c r="I87" s="5">
+        <v>0</v>
+      </c>
+      <c r="J87" s="5">
+        <v>2</v>
+      </c>
+      <c r="K87" s="5">
+        <v>4</v>
+      </c>
+      <c r="L87" s="5">
+        <v>3</v>
+      </c>
+      <c r="M87" s="5">
+        <v>0</v>
+      </c>
+      <c r="N87" s="5">
+        <v>2</v>
+      </c>
+      <c r="O87" s="5">
+        <v>0</v>
+      </c>
+      <c r="P87" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q87" s="5">
+        <v>0</v>
+      </c>
+      <c r="R87" s="5">
+        <v>3</v>
+      </c>
+      <c r="S87" s="5">
+        <v>32</v>
+      </c>
+      <c r="T87" s="5">
+        <v>7</v>
+      </c>
+      <c r="U87" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:21">
+      <c r="A88" s="3">
+        <v>3</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D88" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E88" s="5">
+        <v>8</v>
+      </c>
+      <c r="F88" s="5">
+        <v>388</v>
+      </c>
+      <c r="G88" s="5">
+        <v>0</v>
+      </c>
+      <c r="H88" s="5">
+        <v>1</v>
+      </c>
+      <c r="I88" s="5">
+        <v>0</v>
+      </c>
+      <c r="J88" s="5">
+        <v>1</v>
+      </c>
+      <c r="K88" s="5">
+        <v>3</v>
+      </c>
+      <c r="L88" s="5">
+        <v>1</v>
+      </c>
+      <c r="M88" s="5">
+        <v>0</v>
+      </c>
+      <c r="N88" s="5">
+        <v>0</v>
+      </c>
+      <c r="O88" s="5">
+        <v>0</v>
+      </c>
+      <c r="P88" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q88" s="5">
+        <v>0</v>
+      </c>
+      <c r="R88" s="5">
+        <v>5</v>
+      </c>
+      <c r="S88" s="5">
+        <v>51</v>
+      </c>
+      <c r="T88" s="5">
+        <v>3</v>
+      </c>
+      <c r="U88" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:21">
+      <c r="A89" s="3">
+        <v>3</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D89" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E89" s="5">
+        <v>6</v>
+      </c>
+      <c r="F89" s="5">
+        <v>296</v>
+      </c>
+      <c r="G89" s="5">
+        <v>0</v>
+      </c>
+      <c r="H89" s="5">
+        <v>0</v>
+      </c>
+      <c r="I89" s="5">
+        <v>1</v>
+      </c>
+      <c r="J89" s="5">
+        <v>0</v>
+      </c>
+      <c r="K89" s="5">
+        <v>2</v>
+      </c>
+      <c r="L89" s="5">
+        <v>0</v>
+      </c>
+      <c r="M89" s="5">
+        <v>0</v>
+      </c>
+      <c r="N89" s="5">
+        <v>1</v>
+      </c>
+      <c r="O89" s="5">
+        <v>0</v>
+      </c>
+      <c r="P89" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q89" s="5">
+        <v>0</v>
+      </c>
+      <c r="R89" s="5">
+        <v>5</v>
+      </c>
+      <c r="S89" s="5">
+        <v>70</v>
+      </c>
+      <c r="T89" s="5">
+        <v>3</v>
+      </c>
+      <c r="U89" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:21">
+      <c r="A90" s="3">
+        <v>3</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D90" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E90" s="5">
+        <v>6</v>
+      </c>
+      <c r="F90" s="5">
+        <v>296</v>
+      </c>
+      <c r="G90" s="5">
+        <v>0</v>
+      </c>
+      <c r="H90" s="5">
+        <v>0</v>
+      </c>
+      <c r="I90" s="5">
+        <v>0</v>
+      </c>
+      <c r="J90" s="5">
+        <v>1</v>
+      </c>
+      <c r="K90" s="5">
+        <v>5</v>
+      </c>
+      <c r="L90" s="5">
+        <v>1</v>
+      </c>
+      <c r="M90" s="5">
+        <v>0</v>
+      </c>
+      <c r="N90" s="5">
+        <v>2</v>
+      </c>
+      <c r="O90" s="5">
+        <v>1</v>
+      </c>
+      <c r="P90" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q90" s="5">
+        <v>0</v>
+      </c>
+      <c r="R90" s="5">
+        <v>5</v>
+      </c>
+      <c r="S90" s="5">
+        <v>31</v>
+      </c>
+      <c r="T90" s="5">
+        <v>5</v>
+      </c>
+      <c r="U90" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:21">
+      <c r="A91" s="3">
+        <v>3</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D91" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E91" s="5">
+        <v>5</v>
+      </c>
+      <c r="F91" s="5">
+        <v>249</v>
+      </c>
+      <c r="G91" s="5">
+        <v>0</v>
+      </c>
+      <c r="H91" s="5">
+        <v>0</v>
+      </c>
+      <c r="I91" s="5">
+        <v>2</v>
+      </c>
+      <c r="J91" s="5">
+        <v>0</v>
+      </c>
+      <c r="K91" s="5">
+        <v>2</v>
+      </c>
+      <c r="L91" s="5">
+        <v>1</v>
+      </c>
+      <c r="M91" s="5">
+        <v>0</v>
+      </c>
+      <c r="N91" s="5">
+        <v>3</v>
+      </c>
+      <c r="O91" s="5">
+        <v>0</v>
+      </c>
+      <c r="P91" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="5">
+        <v>0</v>
+      </c>
+      <c r="R91" s="5">
+        <v>3</v>
+      </c>
+      <c r="S91" s="5">
+        <v>12</v>
+      </c>
+      <c r="T91" s="5">
+        <v>4</v>
+      </c>
+      <c r="U91" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:21">
+      <c r="A92" s="3">
+        <v>3</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D92" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="E92" s="5">
+        <v>5</v>
+      </c>
+      <c r="F92" s="5">
+        <v>250</v>
+      </c>
+      <c r="G92" s="5">
+        <v>0</v>
+      </c>
+      <c r="H92" s="5">
+        <v>2</v>
+      </c>
+      <c r="I92" s="5">
+        <v>0</v>
+      </c>
+      <c r="J92" s="5">
+        <v>0</v>
+      </c>
+      <c r="K92" s="5">
+        <v>2</v>
+      </c>
+      <c r="L92" s="5">
+        <v>1</v>
+      </c>
+      <c r="M92" s="5">
+        <v>0</v>
+      </c>
+      <c r="N92" s="5">
+        <v>2</v>
+      </c>
+      <c r="O92" s="5">
+        <v>1</v>
+      </c>
+      <c r="P92" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q92" s="5">
+        <v>0</v>
+      </c>
+      <c r="R92" s="5">
+        <v>2</v>
+      </c>
+      <c r="S92" s="5">
+        <v>10</v>
+      </c>
+      <c r="T92" s="5">
+        <v>2</v>
+      </c>
+      <c r="U92" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:21">
+      <c r="A93" s="3">
+        <v>3</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D93" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E93" s="5">
+        <v>7</v>
+      </c>
+      <c r="F93" s="5">
+        <v>369</v>
+      </c>
+      <c r="G93" s="5">
+        <v>0</v>
+      </c>
+      <c r="H93" s="5">
+        <v>0</v>
+      </c>
+      <c r="I93" s="5">
+        <v>2</v>
+      </c>
+      <c r="J93" s="5">
+        <v>1</v>
+      </c>
+      <c r="K93" s="5">
+        <v>5</v>
+      </c>
+      <c r="L93" s="5">
+        <v>2</v>
+      </c>
+      <c r="M93" s="5">
+        <v>0</v>
+      </c>
+      <c r="N93" s="5">
+        <v>4</v>
+      </c>
+      <c r="O93" s="5">
+        <v>1</v>
+      </c>
+      <c r="P93" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q93" s="5">
+        <v>0</v>
+      </c>
+      <c r="R93" s="5">
+        <v>4</v>
+      </c>
+      <c r="S93" s="5">
+        <v>23</v>
+      </c>
+      <c r="T93" s="5">
+        <v>2</v>
+      </c>
+      <c r="U93" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:21">
+      <c r="A94" s="3">
+        <v>3</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D94" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E94" s="5">
+        <v>5</v>
+      </c>
+      <c r="F94" s="5">
+        <v>221</v>
+      </c>
+      <c r="G94" s="5">
+        <v>0</v>
+      </c>
+      <c r="H94" s="5">
+        <v>0</v>
+      </c>
+      <c r="I94" s="5">
+        <v>3</v>
+      </c>
+      <c r="J94" s="5">
+        <v>0</v>
+      </c>
+      <c r="K94" s="5">
+        <v>2</v>
+      </c>
+      <c r="L94" s="5">
+        <v>0</v>
+      </c>
+      <c r="M94" s="5">
+        <v>0</v>
+      </c>
+      <c r="N94" s="5">
+        <v>3</v>
+      </c>
+      <c r="O94" s="5">
+        <v>1</v>
+      </c>
+      <c r="P94" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="5">
+        <v>0</v>
+      </c>
+      <c r="R94" s="5">
+        <v>2</v>
+      </c>
+      <c r="S94" s="5">
+        <v>4</v>
+      </c>
+      <c r="T94" s="5">
+        <v>5</v>
+      </c>
+      <c r="U94" s="5">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -6071,10 +7891,10 @@
         <v>3</v>
       </c>
       <c r="C3" s="3">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D3" s="3">
-        <v>146</v>
+        <v>309</v>
       </c>
       <c r="E3" s="5">
         <v>0</v>
@@ -6083,7 +7903,7 @@
         <v>0</v>
       </c>
       <c r="G3" s="5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H3" s="5">
         <v>0</v>
@@ -6116,7 +7936,7 @@
         <v>10</v>
       </c>
       <c r="R3" s="5">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="S3" s="5">
         <v>0</v>
@@ -6130,26 +7950,26 @@
         <v>58</v>
       </c>
       <c r="C4" s="3">
+        <v>16</v>
+      </c>
+      <c r="D4" s="3">
+        <v>798</v>
+      </c>
+      <c r="E4" s="5">
+        <v>1</v>
+      </c>
+      <c r="F4" s="5">
+        <v>0</v>
+      </c>
+      <c r="G4" s="5">
+        <v>3</v>
+      </c>
+      <c r="H4" s="5">
+        <v>1</v>
+      </c>
+      <c r="I4" s="5">
         <v>9</v>
       </c>
-      <c r="D4" s="3">
-        <v>451</v>
-      </c>
-      <c r="E4" s="5">
-        <v>1</v>
-      </c>
-      <c r="F4" s="5">
-        <v>0</v>
-      </c>
-      <c r="G4" s="5">
-        <v>1</v>
-      </c>
-      <c r="H4" s="5">
-        <v>0</v>
-      </c>
-      <c r="I4" s="5">
-        <v>5</v>
-      </c>
       <c r="J4" s="5">
         <v>2</v>
       </c>
@@ -6157,25 +7977,25 @@
         <v>0</v>
       </c>
       <c r="L4" s="5">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M4" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N4" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O4" s="5">
         <v>0</v>
       </c>
       <c r="P4" s="5">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="Q4" s="5">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="R4" s="5">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="S4" s="5">
         <v>0</v>
@@ -6189,34 +8009,34 @@
         <v>71</v>
       </c>
       <c r="C5" s="3">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D5" s="3">
-        <v>313</v>
+        <v>654</v>
       </c>
       <c r="E5" s="5">
         <v>0</v>
       </c>
       <c r="F5" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G5" s="5">
         <v>1</v>
       </c>
       <c r="H5" s="5">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I5" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J5" s="5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K5" s="5">
         <v>0</v>
       </c>
       <c r="L5" s="5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M5" s="5">
         <v>0</v>
@@ -6228,13 +8048,13 @@
         <v>0</v>
       </c>
       <c r="P5" s="5">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="Q5" s="5">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="R5" s="5">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="S5" s="5">
         <v>1</v>
@@ -6248,10 +8068,10 @@
         <v>69</v>
       </c>
       <c r="C6" s="3">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D6" s="3">
-        <v>433</v>
+        <v>583</v>
       </c>
       <c r="E6" s="5">
         <v>0</v>
@@ -6260,25 +8080,25 @@
         <v>1</v>
       </c>
       <c r="G6" s="5">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H6" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I6" s="5">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J6" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K6" s="5">
         <v>0</v>
       </c>
       <c r="L6" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M6" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N6" s="5">
         <v>0</v>
@@ -6293,7 +8113,7 @@
         <v>76</v>
       </c>
       <c r="R6" s="5">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="S6" s="5">
         <v>2</v>
@@ -6366,25 +8186,25 @@
         <v>93</v>
       </c>
       <c r="C8" s="3">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D8" s="3">
-        <v>508</v>
+        <v>662</v>
       </c>
       <c r="E8" s="5">
         <v>0</v>
       </c>
       <c r="F8" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G8" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H8" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I8" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J8" s="5">
         <v>1</v>
@@ -6393,7 +8213,7 @@
         <v>0</v>
       </c>
       <c r="L8" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M8" s="5">
         <v>0</v>
@@ -6405,13 +8225,13 @@
         <v>0</v>
       </c>
       <c r="P8" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q8" s="5">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="R8" s="5">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="S8" s="5">
         <v>0</v>
@@ -6484,37 +8304,37 @@
         <v>48</v>
       </c>
       <c r="C10" s="3">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D10" s="3">
-        <v>554</v>
+        <v>780</v>
       </c>
       <c r="E10" s="5">
         <v>0</v>
       </c>
       <c r="F10" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G10" s="5">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H10" s="5">
         <v>0</v>
       </c>
       <c r="I10" s="5">
+        <v>7</v>
+      </c>
+      <c r="J10" s="5">
+        <v>0</v>
+      </c>
+      <c r="K10" s="5">
+        <v>0</v>
+      </c>
+      <c r="L10" s="5">
         <v>5</v>
       </c>
-      <c r="J10" s="5">
-        <v>0</v>
-      </c>
-      <c r="K10" s="5">
-        <v>0</v>
-      </c>
-      <c r="L10" s="5">
-        <v>3</v>
-      </c>
       <c r="M10" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N10" s="5">
         <v>0</v>
@@ -6523,13 +8343,13 @@
         <v>0</v>
       </c>
       <c r="P10" s="5">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Q10" s="5">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="R10" s="5">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="S10" s="5">
         <v>1</v>
@@ -6543,10 +8363,10 @@
         <v>42</v>
       </c>
       <c r="C11" s="3">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D11" s="3">
-        <v>489</v>
+        <v>738</v>
       </c>
       <c r="E11" s="5">
         <v>0</v>
@@ -6555,40 +8375,40 @@
         <v>2</v>
       </c>
       <c r="G11" s="5">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H11" s="5">
         <v>0</v>
       </c>
       <c r="I11" s="5">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J11" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K11" s="5">
         <v>0</v>
       </c>
       <c r="L11" s="5">
+        <v>8</v>
+      </c>
+      <c r="M11" s="5">
+        <v>1</v>
+      </c>
+      <c r="N11" s="5">
+        <v>0</v>
+      </c>
+      <c r="O11" s="5">
+        <v>0</v>
+      </c>
+      <c r="P11" s="5">
         <v>5</v>
       </c>
-      <c r="M11" s="5">
-        <v>1</v>
-      </c>
-      <c r="N11" s="5">
-        <v>0</v>
-      </c>
-      <c r="O11" s="5">
-        <v>0</v>
-      </c>
-      <c r="P11" s="5">
-        <v>2</v>
-      </c>
       <c r="Q11" s="5">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="R11" s="5">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="S11" s="5">
         <v>0</v>
@@ -6602,25 +8422,25 @@
         <v>77</v>
       </c>
       <c r="C12" s="3">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D12" s="3">
-        <v>339</v>
+        <v>521</v>
       </c>
       <c r="E12" s="5">
         <v>0</v>
       </c>
       <c r="F12" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G12" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H12" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I12" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J12" s="5">
         <v>0</v>
@@ -6641,16 +8461,16 @@
         <v>1</v>
       </c>
       <c r="P12" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q12" s="5">
         <v>11</v>
       </c>
       <c r="R12" s="5">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="S12" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -6661,16 +8481,16 @@
         <v>101</v>
       </c>
       <c r="C13" s="3">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D13" s="3">
-        <v>400</v>
+        <v>650</v>
       </c>
       <c r="E13" s="5">
         <v>0</v>
       </c>
       <c r="F13" s="5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G13" s="5">
         <v>0</v>
@@ -6679,19 +8499,19 @@
         <v>1</v>
       </c>
       <c r="I13" s="5">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J13" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K13" s="5">
         <v>0</v>
       </c>
       <c r="L13" s="5">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="M13" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N13" s="5">
         <v>0</v>
@@ -6700,13 +8520,13 @@
         <v>0</v>
       </c>
       <c r="P13" s="5">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="Q13" s="5">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="R13" s="5">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="S13" s="5">
         <v>2</v>
@@ -6720,19 +8540,19 @@
         <v>60</v>
       </c>
       <c r="C14" s="3">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D14" s="3">
-        <v>468</v>
+        <v>671</v>
       </c>
       <c r="E14" s="5">
         <v>0</v>
       </c>
       <c r="F14" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14" s="5">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H14" s="5">
         <v>3</v>
@@ -6747,10 +8567,10 @@
         <v>0</v>
       </c>
       <c r="L14" s="5">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M14" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N14" s="5">
         <v>1</v>
@@ -6759,13 +8579,13 @@
         <v>1</v>
       </c>
       <c r="P14" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q14" s="5">
         <v>46</v>
       </c>
       <c r="R14" s="5">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="S14" s="5">
         <v>0</v>
@@ -6838,25 +8658,25 @@
         <v>62</v>
       </c>
       <c r="C16" s="3">
+        <v>10</v>
+      </c>
+      <c r="D16" s="3">
+        <v>448</v>
+      </c>
+      <c r="E16" s="5">
+        <v>0</v>
+      </c>
+      <c r="F16" s="5">
+        <v>0</v>
+      </c>
+      <c r="G16" s="5">
         <v>5</v>
       </c>
-      <c r="D16" s="3">
-        <v>209</v>
-      </c>
-      <c r="E16" s="5">
-        <v>0</v>
-      </c>
-      <c r="F16" s="5">
-        <v>0</v>
-      </c>
-      <c r="G16" s="5">
-        <v>3</v>
-      </c>
       <c r="H16" s="5">
         <v>0</v>
       </c>
       <c r="I16" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J16" s="5">
         <v>0</v>
@@ -6865,10 +8685,10 @@
         <v>0</v>
       </c>
       <c r="L16" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M16" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N16" s="5">
         <v>0</v>
@@ -6877,13 +8697,13 @@
         <v>0</v>
       </c>
       <c r="P16" s="5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Q16" s="5">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="R16" s="5">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="S16" s="5">
         <v>0</v>
@@ -6897,28 +8717,28 @@
         <v>83</v>
       </c>
       <c r="C17" s="3">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D17" s="3">
-        <v>584</v>
+        <v>972</v>
       </c>
       <c r="E17" s="5">
         <v>0</v>
       </c>
       <c r="F17" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17" s="5">
         <v>4</v>
       </c>
       <c r="H17" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I17" s="5">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J17" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K17" s="5">
         <v>0</v>
@@ -6936,13 +8756,13 @@
         <v>0</v>
       </c>
       <c r="P17" s="5">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="Q17" s="5">
-        <v>40</v>
+        <v>91</v>
       </c>
       <c r="R17" s="5">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="S17" s="5">
         <v>1</v>
@@ -6956,10 +8776,10 @@
         <v>85</v>
       </c>
       <c r="C18" s="3">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D18" s="3">
-        <v>338</v>
+        <v>634</v>
       </c>
       <c r="E18" s="5">
         <v>0</v>
@@ -6971,22 +8791,22 @@
         <v>4</v>
       </c>
       <c r="H18" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18" s="5">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J18" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K18" s="5">
         <v>0</v>
       </c>
       <c r="L18" s="5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M18" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N18" s="5">
         <v>0</v>
@@ -6995,13 +8815,13 @@
         <v>0</v>
       </c>
       <c r="P18" s="5">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="Q18" s="5">
-        <v>7</v>
+        <v>38</v>
       </c>
       <c r="R18" s="5">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="S18" s="5">
         <v>0</v>
@@ -7015,10 +8835,10 @@
         <v>54</v>
       </c>
       <c r="C19" s="3">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D19" s="3">
-        <v>546</v>
+        <v>842</v>
       </c>
       <c r="E19" s="5">
         <v>0</v>
@@ -7027,13 +8847,13 @@
         <v>0</v>
       </c>
       <c r="G19" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H19" s="5">
         <v>2</v>
       </c>
       <c r="I19" s="5">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J19" s="5">
         <v>1</v>
@@ -7042,7 +8862,7 @@
         <v>0</v>
       </c>
       <c r="L19" s="5">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M19" s="5">
         <v>2</v>
@@ -7054,16 +8874,16 @@
         <v>0</v>
       </c>
       <c r="P19" s="5">
+        <v>11</v>
+      </c>
+      <c r="Q19" s="5">
+        <v>108</v>
+      </c>
+      <c r="R19" s="5">
         <v>6</v>
       </c>
-      <c r="Q19" s="5">
-        <v>38</v>
-      </c>
-      <c r="R19" s="5">
-        <v>3</v>
-      </c>
       <c r="S19" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:19">
@@ -7133,10 +8953,10 @@
         <v>46</v>
       </c>
       <c r="C21" s="3">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D21" s="3">
-        <v>416</v>
+        <v>659</v>
       </c>
       <c r="E21" s="5">
         <v>0</v>
@@ -7145,25 +8965,25 @@
         <v>0</v>
       </c>
       <c r="G21" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H21" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I21" s="5">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J21" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K21" s="5">
         <v>0</v>
       </c>
       <c r="L21" s="5">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="M21" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N21" s="5">
         <v>1</v>
@@ -7172,16 +8992,16 @@
         <v>0</v>
       </c>
       <c r="P21" s="5">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="Q21" s="5">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="R21" s="5">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="S21" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:19">
@@ -7192,10 +9012,10 @@
         <v>50</v>
       </c>
       <c r="C22" s="3">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D22" s="3">
-        <v>343</v>
+        <v>434</v>
       </c>
       <c r="E22" s="5">
         <v>0</v>
@@ -7204,7 +9024,7 @@
         <v>0</v>
       </c>
       <c r="G22" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H22" s="5">
         <v>0</v>
@@ -7219,7 +9039,7 @@
         <v>0</v>
       </c>
       <c r="L22" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M22" s="5">
         <v>0</v>
@@ -7231,13 +9051,13 @@
         <v>0</v>
       </c>
       <c r="P22" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q22" s="5">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="R22" s="5">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="S22" s="5">
         <v>0</v>
@@ -7251,34 +9071,34 @@
         <v>104</v>
       </c>
       <c r="C23" s="3">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D23" s="3">
-        <v>130</v>
+        <v>463</v>
       </c>
       <c r="E23" s="5">
         <v>0</v>
       </c>
       <c r="F23" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G23" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H23" s="5">
         <v>1</v>
       </c>
       <c r="I23" s="5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J23" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K23" s="5">
         <v>0</v>
       </c>
       <c r="L23" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M23" s="5">
         <v>0</v>
@@ -7290,16 +9110,16 @@
         <v>0</v>
       </c>
       <c r="P23" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q23" s="5">
-        <v>23</v>
+        <v>54</v>
       </c>
       <c r="R23" s="5">
         <v>5</v>
       </c>
       <c r="S23" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:19">
@@ -7310,10 +9130,10 @@
         <v>73</v>
       </c>
       <c r="C24" s="3">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D24" s="3">
-        <v>324</v>
+        <v>693</v>
       </c>
       <c r="E24" s="5">
         <v>0</v>
@@ -7322,25 +9142,25 @@
         <v>1</v>
       </c>
       <c r="G24" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H24" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24" s="5">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="J24" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K24" s="5">
         <v>0</v>
       </c>
       <c r="L24" s="5">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="M24" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N24" s="5">
         <v>1</v>
@@ -7349,13 +9169,13 @@
         <v>0</v>
       </c>
       <c r="P24" s="5">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="Q24" s="5">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="R24" s="5">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="S24" s="5">
         <v>0</v>
@@ -7369,25 +9189,25 @@
         <v>89</v>
       </c>
       <c r="C25" s="3">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D25" s="3">
-        <v>404</v>
+        <v>533</v>
       </c>
       <c r="E25" s="5">
         <v>0</v>
       </c>
       <c r="F25" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G25" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H25" s="5">
         <v>3</v>
       </c>
       <c r="I25" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J25" s="5">
         <v>0</v>
@@ -7408,13 +9228,13 @@
         <v>0</v>
       </c>
       <c r="P25" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q25" s="5">
+        <v>23</v>
+      </c>
+      <c r="R25" s="5">
         <v>11</v>
-      </c>
-      <c r="R25" s="5">
-        <v>8</v>
       </c>
       <c r="S25" s="5">
         <v>0</v>
@@ -7487,35 +9307,35 @@
         <v>52</v>
       </c>
       <c r="C27" s="3">
+        <v>14</v>
+      </c>
+      <c r="D27" s="3">
+        <v>679</v>
+      </c>
+      <c r="E27" s="5">
+        <v>0</v>
+      </c>
+      <c r="F27" s="5">
+        <v>2</v>
+      </c>
+      <c r="G27" s="5">
+        <v>3</v>
+      </c>
+      <c r="H27" s="5">
+        <v>1</v>
+      </c>
+      <c r="I27" s="5">
         <v>8</v>
       </c>
-      <c r="D27" s="3">
-        <v>412</v>
-      </c>
-      <c r="E27" s="5">
-        <v>0</v>
-      </c>
-      <c r="F27" s="5">
-        <v>2</v>
-      </c>
-      <c r="G27" s="5">
-        <v>1</v>
-      </c>
-      <c r="H27" s="5">
-        <v>0</v>
-      </c>
-      <c r="I27" s="5">
+      <c r="J27" s="5">
+        <v>3</v>
+      </c>
+      <c r="K27" s="5">
+        <v>0</v>
+      </c>
+      <c r="L27" s="5">
         <v>6</v>
       </c>
-      <c r="J27" s="5">
-        <v>2</v>
-      </c>
-      <c r="K27" s="5">
-        <v>0</v>
-      </c>
-      <c r="L27" s="5">
-        <v>4</v>
-      </c>
       <c r="M27" s="5">
         <v>1</v>
       </c>
@@ -7526,16 +9346,16 @@
         <v>0</v>
       </c>
       <c r="P27" s="5">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="Q27" s="5">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="R27" s="5">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="S27" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:19">
@@ -7546,34 +9366,34 @@
         <v>44</v>
       </c>
       <c r="C28" s="3">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D28" s="3">
-        <v>353</v>
+        <v>625</v>
       </c>
       <c r="E28" s="5">
         <v>0</v>
       </c>
       <c r="F28" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G28" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H28" s="5">
         <v>3</v>
       </c>
       <c r="I28" s="5">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J28" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K28" s="5">
         <v>0</v>
       </c>
       <c r="L28" s="5">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M28" s="5">
         <v>1</v>
@@ -7585,13 +9405,13 @@
         <v>0</v>
       </c>
       <c r="P28" s="5">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="Q28" s="5">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="R28" s="5">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="S28" s="5">
         <v>1</v>
@@ -7605,16 +9425,16 @@
         <v>99</v>
       </c>
       <c r="C29" s="3">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D29" s="3">
-        <v>273</v>
+        <v>398</v>
       </c>
       <c r="E29" s="5">
         <v>0</v>
       </c>
       <c r="F29" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G29" s="5">
         <v>2</v>
@@ -7644,13 +9464,13 @@
         <v>0</v>
       </c>
       <c r="P29" s="5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Q29" s="5">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="R29" s="5">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="S29" s="5">
         <v>2</v>
@@ -7664,10 +9484,10 @@
         <v>97</v>
       </c>
       <c r="C30" s="3">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D30" s="3">
-        <v>351</v>
+        <v>472</v>
       </c>
       <c r="E30" s="5">
         <v>0</v>
@@ -7676,7 +9496,7 @@
         <v>0</v>
       </c>
       <c r="G30" s="5">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H30" s="5">
         <v>1</v>
@@ -7691,7 +9511,7 @@
         <v>0</v>
       </c>
       <c r="L30" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M30" s="5">
         <v>0</v>
@@ -7709,7 +9529,7 @@
         <v>-1</v>
       </c>
       <c r="R30" s="5">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="S30" s="5">
         <v>2</v>
@@ -7723,26 +9543,26 @@
         <v>79</v>
       </c>
       <c r="C31" s="3">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D31" s="3">
-        <v>605</v>
+        <v>925</v>
       </c>
       <c r="E31" s="5">
         <v>0</v>
       </c>
       <c r="F31" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G31" s="5">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H31" s="5">
+        <v>7</v>
+      </c>
+      <c r="I31" s="5">
         <v>5</v>
       </c>
-      <c r="I31" s="5">
-        <v>4</v>
-      </c>
       <c r="J31" s="5">
         <v>0</v>
       </c>
@@ -7750,25 +9570,25 @@
         <v>0</v>
       </c>
       <c r="L31" s="5">
+        <v>7</v>
+      </c>
+      <c r="M31" s="5">
+        <v>1</v>
+      </c>
+      <c r="N31" s="5">
+        <v>0</v>
+      </c>
+      <c r="O31" s="5">
+        <v>0</v>
+      </c>
+      <c r="P31" s="5">
         <v>5</v>
-      </c>
-      <c r="M31" s="5">
-        <v>0</v>
-      </c>
-      <c r="N31" s="5">
-        <v>0</v>
-      </c>
-      <c r="O31" s="5">
-        <v>0</v>
-      </c>
-      <c r="P31" s="5">
-        <v>4</v>
       </c>
       <c r="Q31" s="5">
         <v>21</v>
       </c>
       <c r="R31" s="5">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="S31" s="5">
         <v>2</v>
@@ -7782,52 +9602,52 @@
         <v>56</v>
       </c>
       <c r="C32" s="3">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D32" s="3">
-        <v>485</v>
+        <v>796</v>
       </c>
       <c r="E32" s="5">
         <v>0</v>
       </c>
       <c r="F32" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G32" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H32" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I32" s="5">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J32" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K32" s="5">
         <v>0</v>
       </c>
       <c r="L32" s="5">
+        <v>7</v>
+      </c>
+      <c r="M32" s="5">
+        <v>2</v>
+      </c>
+      <c r="N32" s="5">
+        <v>0</v>
+      </c>
+      <c r="O32" s="5">
+        <v>0</v>
+      </c>
+      <c r="P32" s="5">
         <v>6</v>
       </c>
-      <c r="M32" s="5">
-        <v>2</v>
-      </c>
-      <c r="N32" s="5">
-        <v>0</v>
-      </c>
-      <c r="O32" s="5">
-        <v>0</v>
-      </c>
-      <c r="P32" s="5">
-        <v>4</v>
-      </c>
       <c r="Q32" s="5">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="R32" s="5">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="S32" s="5">
         <v>1</v>
@@ -7841,10 +9661,10 @@
         <v>67</v>
       </c>
       <c r="C33" s="3">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D33" s="3">
-        <v>656</v>
+        <v>890</v>
       </c>
       <c r="E33" s="5">
         <v>0</v>
@@ -7853,25 +9673,25 @@
         <v>0</v>
       </c>
       <c r="G33" s="5">
+        <v>7</v>
+      </c>
+      <c r="H33" s="5">
+        <v>1</v>
+      </c>
+      <c r="I33" s="5">
+        <v>11</v>
+      </c>
+      <c r="J33" s="5">
+        <v>2</v>
+      </c>
+      <c r="K33" s="5">
+        <v>0</v>
+      </c>
+      <c r="L33" s="5">
         <v>6</v>
       </c>
-      <c r="H33" s="5">
-        <v>1</v>
-      </c>
-      <c r="I33" s="5">
-        <v>8</v>
-      </c>
-      <c r="J33" s="5">
-        <v>0</v>
-      </c>
-      <c r="K33" s="5">
-        <v>0</v>
-      </c>
-      <c r="L33" s="5">
-        <v>4</v>
-      </c>
       <c r="M33" s="5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N33" s="5">
         <v>0</v>
@@ -7880,13 +9700,13 @@
         <v>0</v>
       </c>
       <c r="P33" s="5">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="Q33" s="5">
-        <v>105</v>
+        <v>158</v>
       </c>
       <c r="R33" s="5">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="S33" s="5">
         <v>0</v>
@@ -7900,10 +9720,10 @@
         <v>95</v>
       </c>
       <c r="C34" s="3">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D34" s="3">
-        <v>292</v>
+        <v>442</v>
       </c>
       <c r="E34" s="5">
         <v>0</v>
@@ -7912,13 +9732,13 @@
         <v>0</v>
       </c>
       <c r="G34" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H34" s="5">
         <v>0</v>
       </c>
       <c r="I34" s="5">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J34" s="5">
         <v>1</v>
@@ -7927,7 +9747,7 @@
         <v>0</v>
       </c>
       <c r="L34" s="5">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M34" s="5">
         <v>1</v>
@@ -7939,16 +9759,16 @@
         <v>0</v>
       </c>
       <c r="P34" s="5">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q34" s="5">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="R34" s="5">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="S34" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:19">
@@ -7959,10 +9779,10 @@
         <v>75</v>
       </c>
       <c r="C35" s="3">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D35" s="3">
-        <v>366</v>
+        <v>587</v>
       </c>
       <c r="E35" s="5">
         <v>0</v>
@@ -7971,13 +9791,13 @@
         <v>0</v>
       </c>
       <c r="G35" s="5">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H35" s="5">
         <v>1</v>
       </c>
       <c r="I35" s="5">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J35" s="5">
         <v>1</v>
@@ -7986,11 +9806,11 @@
         <v>0</v>
       </c>
       <c r="L35" s="5">
+        <v>7</v>
+      </c>
+      <c r="M35" s="5">
         <v>4</v>
       </c>
-      <c r="M35" s="5">
-        <v>3</v>
-      </c>
       <c r="N35" s="5">
         <v>0</v>
       </c>
@@ -7998,16 +9818,16 @@
         <v>0</v>
       </c>
       <c r="P35" s="5">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="Q35" s="5">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="R35" s="5">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="S35" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -10233,7 +12053,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>66</v>
@@ -10419,7 +12239,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>41</v>
@@ -10543,7 +12363,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>72</v>
@@ -10729,7 +12549,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>47</v>
@@ -10853,7 +12673,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>82</v>
@@ -10915,7 +12735,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>78</v>
@@ -10977,7 +12797,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>88</v>
@@ -11039,7 +12859,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>49</v>
@@ -11225,7 +13045,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>57</v>
@@ -11349,7 +13169,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>80</v>
@@ -11411,7 +13231,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>68</v>
@@ -11535,7 +13355,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>45</v>
@@ -11783,7 +13603,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>43</v>
@@ -12095,7 +13915,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T3"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
@@ -12179,13 +13999,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="E2" s="4">
         <v>0</v>
@@ -12194,26 +14014,26 @@
         <v>0</v>
       </c>
       <c r="G2" s="4">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H2" s="4">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="I2" s="4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J2" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="K2" s="4">
+        <v>0</v>
+      </c>
+      <c r="L2" s="4">
+        <v>4</v>
+      </c>
+      <c r="M2" s="4">
         <v>0.75</v>
       </c>
-      <c r="K2" s="4">
-        <v>0</v>
-      </c>
-      <c r="L2" s="4">
-        <v>0</v>
-      </c>
-      <c r="M2" s="4">
-        <v>0</v>
-      </c>
       <c r="N2" s="4">
         <v>0</v>
       </c>
@@ -12221,19 +14041,19 @@
         <v>0</v>
       </c>
       <c r="P2" s="4">
-        <v>1.15</v>
+        <v>0.7714285714285716</v>
       </c>
       <c r="Q2" s="4">
-        <v>0.45</v>
+        <v>0.325</v>
       </c>
       <c r="R2" s="4">
-        <v>0.7000000000000001</v>
+        <v>0.2</v>
       </c>
       <c r="S2" s="4">
         <v>-0</v>
       </c>
       <c r="T2" s="4">
-        <v>4.050000000000001</v>
+        <v>13.19642857142857</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -12244,58 +14064,1794 @@
         <v>40</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E3" s="4">
+        <v>0</v>
+      </c>
+      <c r="F3" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="G3" s="4">
+        <v>0</v>
+      </c>
+      <c r="H3" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="I3" s="4">
+        <v>4</v>
+      </c>
+      <c r="J3" s="4">
+        <v>2.25</v>
+      </c>
+      <c r="K3" s="4">
+        <v>0</v>
+      </c>
+      <c r="L3" s="4">
+        <v>2</v>
+      </c>
+      <c r="M3" s="4">
+        <v>0</v>
+      </c>
+      <c r="N3" s="4">
+        <v>0</v>
+      </c>
+      <c r="O3" s="4">
+        <v>0</v>
+      </c>
+      <c r="P3" s="4">
+        <v>1.183333333333334</v>
+      </c>
+      <c r="Q3" s="4">
+        <v>-0.1666666666666666</v>
+      </c>
+      <c r="R3" s="4">
+        <v>0.7000000000000001</v>
+      </c>
+      <c r="S3" s="4">
+        <v>-0</v>
+      </c>
+      <c r="T3" s="4">
+        <v>10.66666666666667</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E4" s="4">
+        <v>0</v>
+      </c>
+      <c r="F4" s="4">
+        <v>0</v>
+      </c>
+      <c r="G4" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="H4" s="4">
+        <v>0.15</v>
+      </c>
+      <c r="I4" s="4">
+        <v>4</v>
+      </c>
+      <c r="J4" s="4">
+        <v>0</v>
+      </c>
+      <c r="K4" s="4">
+        <v>0</v>
+      </c>
+      <c r="L4" s="4">
+        <v>3</v>
+      </c>
+      <c r="M4" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="N4" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="O4" s="4">
+        <v>0</v>
+      </c>
+      <c r="P4" s="4">
+        <v>0.457142857142857</v>
+      </c>
+      <c r="Q4" s="4">
+        <v>0.3666666666666667</v>
+      </c>
+      <c r="R4" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="S4" s="4">
+        <v>-0</v>
+      </c>
+      <c r="T4" s="4">
+        <v>10.12380952380953</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E5" s="4">
+        <v>0</v>
+      </c>
+      <c r="F5" s="4">
+        <v>0</v>
+      </c>
+      <c r="G5" s="4">
+        <v>0</v>
+      </c>
+      <c r="H5" s="4">
+        <v>0.15</v>
+      </c>
+      <c r="I5" s="4">
+        <v>5</v>
+      </c>
+      <c r="J5" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="K5" s="4">
+        <v>0</v>
+      </c>
+      <c r="L5" s="4">
+        <v>2</v>
+      </c>
+      <c r="M5" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="N5" s="4">
+        <v>0</v>
+      </c>
+      <c r="O5" s="4">
+        <v>0</v>
+      </c>
+      <c r="P5" s="4">
+        <v>0.4333333333333336</v>
+      </c>
+      <c r="Q5" s="4">
+        <v>0.28</v>
+      </c>
+      <c r="R5" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="S5" s="4">
+        <v>-0</v>
+      </c>
+      <c r="T5" s="4">
+        <v>9.863333333333333</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E6" s="4">
+        <v>0</v>
+      </c>
+      <c r="F6" s="4">
+        <v>0</v>
+      </c>
+      <c r="G6" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="H6" s="4">
+        <v>0</v>
+      </c>
+      <c r="I6" s="4">
+        <v>3</v>
+      </c>
+      <c r="J6" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="K6" s="4">
+        <v>0</v>
+      </c>
+      <c r="L6" s="4">
+        <v>2</v>
+      </c>
+      <c r="M6" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="N6" s="4">
+        <v>0</v>
+      </c>
+      <c r="O6" s="4">
+        <v>0</v>
+      </c>
+      <c r="P6" s="4">
+        <v>1.35</v>
+      </c>
+      <c r="Q6" s="4">
+        <v>-1.75</v>
+      </c>
+      <c r="R6" s="4">
+        <v>0.6000000000000001</v>
+      </c>
+      <c r="S6" s="4">
+        <v>-0</v>
+      </c>
+      <c r="T6" s="4">
+        <v>8.449999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" s="4">
+        <v>0</v>
+      </c>
+      <c r="F7" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="G7" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="H7" s="4">
+        <v>0</v>
+      </c>
+      <c r="I7" s="4">
+        <v>3</v>
+      </c>
+      <c r="J7" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="K7" s="4">
+        <v>0</v>
+      </c>
+      <c r="L7" s="4">
+        <v>3</v>
+      </c>
+      <c r="M7" s="4">
+        <v>0</v>
+      </c>
+      <c r="N7" s="4">
+        <v>0</v>
+      </c>
+      <c r="O7" s="4">
+        <v>0</v>
+      </c>
+      <c r="P7" s="4">
+        <v>0.03333333333333357</v>
+      </c>
+      <c r="Q7" s="4">
+        <v>0.2333333333333333</v>
+      </c>
+      <c r="R7" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="S7" s="4">
+        <v>-0</v>
+      </c>
+      <c r="T7" s="4">
+        <v>8.066666666666666</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" s="4">
+        <v>0</v>
+      </c>
+      <c r="F8" s="4">
+        <v>0</v>
+      </c>
+      <c r="G8" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="H8" s="4">
+        <v>0.15</v>
+      </c>
+      <c r="I8" s="4">
+        <v>2</v>
+      </c>
+      <c r="J8" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="K8" s="4">
+        <v>0</v>
+      </c>
+      <c r="L8" s="4">
+        <v>3</v>
+      </c>
+      <c r="M8" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="N8" s="4">
+        <v>0</v>
+      </c>
+      <c r="O8" s="4">
+        <v>0</v>
+      </c>
+      <c r="P8" s="4">
+        <v>0.3600000000000002</v>
+      </c>
+      <c r="Q8" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="R8" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="S8" s="4">
+        <v>-0.5</v>
+      </c>
+      <c r="T8" s="4">
+        <v>7.66</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" s="3">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9" s="4">
+        <v>0</v>
+      </c>
+      <c r="F9" s="4">
+        <v>0</v>
+      </c>
+      <c r="G9" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="H9" s="4">
+        <v>0</v>
+      </c>
+      <c r="I9" s="4">
+        <v>2</v>
+      </c>
+      <c r="J9" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="K9" s="4">
+        <v>0</v>
+      </c>
+      <c r="L9" s="4">
+        <v>3</v>
+      </c>
+      <c r="M9" s="4">
+        <v>0</v>
+      </c>
+      <c r="N9" s="4">
+        <v>0</v>
+      </c>
+      <c r="O9" s="4">
+        <v>0</v>
+      </c>
+      <c r="P9" s="4">
+        <v>0.4799999999999998</v>
+      </c>
+      <c r="Q9" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="R9" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="S9" s="4">
+        <v>-0</v>
+      </c>
+      <c r="T9" s="4">
+        <v>7.63</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" s="3">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="E10" s="4">
+        <v>0</v>
+      </c>
+      <c r="F10" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="G10" s="4">
+        <v>0</v>
+      </c>
+      <c r="H10" s="4">
+        <v>0</v>
+      </c>
+      <c r="I10" s="4">
+        <v>2</v>
+      </c>
+      <c r="J10" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="K10" s="4">
+        <v>0</v>
+      </c>
+      <c r="L10" s="4">
+        <v>2</v>
+      </c>
+      <c r="M10" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="N10" s="4">
+        <v>0</v>
+      </c>
+      <c r="O10" s="4">
+        <v>0</v>
+      </c>
+      <c r="P10" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="Q10" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="R10" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="S10" s="4">
+        <v>-0</v>
+      </c>
+      <c r="T10" s="4">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" s="3">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E11" s="4">
+        <v>0</v>
+      </c>
+      <c r="F11" s="4">
+        <v>0</v>
+      </c>
+      <c r="G11" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="H11" s="4">
+        <v>0</v>
+      </c>
+      <c r="I11" s="4">
+        <v>2</v>
+      </c>
+      <c r="J11" s="4">
+        <v>0</v>
+      </c>
+      <c r="K11" s="4">
+        <v>0</v>
+      </c>
+      <c r="L11" s="4">
+        <v>3</v>
+      </c>
+      <c r="M11" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="N11" s="4">
+        <v>0</v>
+      </c>
+      <c r="O11" s="4">
+        <v>0</v>
+      </c>
+      <c r="P11" s="4">
+        <v>-0.07999999999999972</v>
+      </c>
+      <c r="Q11" s="4">
+        <v>0.7000000000000001</v>
+      </c>
+      <c r="R11" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="S11" s="4">
+        <v>-0.5</v>
+      </c>
+      <c r="T11" s="4">
+        <v>7.12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" s="3">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E12" s="4">
+        <v>0</v>
+      </c>
+      <c r="F12" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="G12" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="H12" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="I12" s="4">
+        <v>1</v>
+      </c>
+      <c r="J12" s="4">
+        <v>0</v>
+      </c>
+      <c r="K12" s="4">
+        <v>0</v>
+      </c>
+      <c r="L12" s="4">
+        <v>2</v>
+      </c>
+      <c r="M12" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="N12" s="4">
+        <v>0</v>
+      </c>
+      <c r="O12" s="4">
+        <v>0</v>
+      </c>
+      <c r="P12" s="4">
+        <v>0.07142857142857154</v>
+      </c>
+      <c r="Q12" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="R12" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="S12" s="4">
+        <v>-0</v>
+      </c>
+      <c r="T12" s="4">
+        <v>6.671428571428572</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" s="3">
+        <v>12</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E13" s="4">
+        <v>0</v>
+      </c>
+      <c r="F13" s="4">
+        <v>0</v>
+      </c>
+      <c r="G13" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="H13" s="4">
+        <v>0.15</v>
+      </c>
+      <c r="I13" s="4">
+        <v>2</v>
+      </c>
+      <c r="J13" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="K13" s="4">
+        <v>0</v>
+      </c>
+      <c r="L13" s="4">
+        <v>1</v>
+      </c>
+      <c r="M13" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="N13" s="4">
+        <v>0</v>
+      </c>
+      <c r="O13" s="4">
+        <v>0</v>
+      </c>
+      <c r="P13" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="Q13" s="4">
+        <v>0</v>
+      </c>
+      <c r="R13" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="S13" s="4">
+        <v>-0</v>
+      </c>
+      <c r="T13" s="4">
+        <v>6.45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" s="3">
+        <v>13</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E14" s="4">
+        <v>0</v>
+      </c>
+      <c r="F14" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="G14" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="H14" s="4">
+        <v>0</v>
+      </c>
+      <c r="I14" s="4">
+        <v>2</v>
+      </c>
+      <c r="J14" s="4">
+        <v>0</v>
+      </c>
+      <c r="K14" s="4">
+        <v>0</v>
+      </c>
+      <c r="L14" s="4">
+        <v>2</v>
+      </c>
+      <c r="M14" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="N14" s="4">
+        <v>0</v>
+      </c>
+      <c r="O14" s="4">
+        <v>0</v>
+      </c>
+      <c r="P14" s="4">
+        <v>0.02000000000000028</v>
+      </c>
+      <c r="Q14" s="4">
+        <v>-0.7000000000000001</v>
+      </c>
+      <c r="R14" s="4">
+        <v>0.6000000000000001</v>
+      </c>
+      <c r="S14" s="4">
+        <v>-0</v>
+      </c>
+      <c r="T14" s="4">
+        <v>5.82</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" s="3">
+        <v>14</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E15" s="4">
+        <v>0</v>
+      </c>
+      <c r="F15" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="G15" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="H15" s="4">
+        <v>0</v>
+      </c>
+      <c r="I15" s="4">
+        <v>0</v>
+      </c>
+      <c r="J15" s="4">
+        <v>0</v>
+      </c>
+      <c r="K15" s="4">
+        <v>0</v>
+      </c>
+      <c r="L15" s="4">
+        <v>3</v>
+      </c>
+      <c r="M15" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="N15" s="4">
+        <v>0</v>
+      </c>
+      <c r="O15" s="4">
+        <v>0</v>
+      </c>
+      <c r="P15" s="4">
+        <v>-0.4399999999999999</v>
+      </c>
+      <c r="Q15" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="R15" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="S15" s="4">
+        <v>-0</v>
+      </c>
+      <c r="T15" s="4">
+        <v>5.660000000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" s="3">
+        <v>15</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E16" s="4">
+        <v>0</v>
+      </c>
+      <c r="F16" s="4">
+        <v>0</v>
+      </c>
+      <c r="G16" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="H16" s="4">
+        <v>0.15</v>
+      </c>
+      <c r="I16" s="4">
+        <v>2</v>
+      </c>
+      <c r="J16" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="K16" s="4">
+        <v>0</v>
+      </c>
+      <c r="L16" s="4">
+        <v>2</v>
+      </c>
+      <c r="M16" s="4">
+        <v>0</v>
+      </c>
+      <c r="N16" s="4">
+        <v>0</v>
+      </c>
+      <c r="O16" s="4">
+        <v>0</v>
+      </c>
+      <c r="P16" s="4">
+        <v>-0.05</v>
+      </c>
+      <c r="Q16" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="R16" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="S16" s="4">
+        <v>-0.5</v>
+      </c>
+      <c r="T16" s="4">
+        <v>5.550000000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" s="3">
+        <v>16</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E17" s="4">
+        <v>0</v>
+      </c>
+      <c r="F17" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="G17" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="H17" s="4">
+        <v>0.15</v>
+      </c>
+      <c r="I17" s="4">
+        <v>2</v>
+      </c>
+      <c r="J17" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="K17" s="4">
+        <v>0</v>
+      </c>
+      <c r="L17" s="4">
+        <v>1</v>
+      </c>
+      <c r="M17" s="4">
+        <v>0</v>
+      </c>
+      <c r="N17" s="4">
+        <v>0</v>
+      </c>
+      <c r="O17" s="4">
+        <v>0</v>
+      </c>
+      <c r="P17" s="4">
+        <v>-0.05714285714285694</v>
+      </c>
+      <c r="Q17" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="R17" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="S17" s="4">
+        <v>-0</v>
+      </c>
+      <c r="T17" s="4">
+        <v>5.392857142857142</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" s="3">
+        <v>17</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="E18" s="4">
+        <v>0</v>
+      </c>
+      <c r="F18" s="4">
+        <v>0</v>
+      </c>
+      <c r="G18" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="H18" s="4">
+        <v>0</v>
+      </c>
+      <c r="I18" s="4">
+        <v>2</v>
+      </c>
+      <c r="J18" s="4">
+        <v>0</v>
+      </c>
+      <c r="K18" s="4">
+        <v>0</v>
+      </c>
+      <c r="L18" s="4">
+        <v>2</v>
+      </c>
+      <c r="M18" s="4">
+        <v>0</v>
+      </c>
+      <c r="N18" s="4">
+        <v>0</v>
+      </c>
+      <c r="O18" s="4">
+        <v>0</v>
+      </c>
+      <c r="P18" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="Q18" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="R18" s="4">
+        <v>0.6000000000000001</v>
+      </c>
+      <c r="S18" s="4">
+        <v>-0.5</v>
+      </c>
+      <c r="T18" s="4">
+        <v>5.15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" s="3">
+        <v>18</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E19" s="4">
+        <v>0</v>
+      </c>
+      <c r="F19" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="G19" s="4">
+        <v>0</v>
+      </c>
+      <c r="H19" s="4">
+        <v>0.15</v>
+      </c>
+      <c r="I19" s="4">
+        <v>3</v>
+      </c>
+      <c r="J19" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="K19" s="4">
+        <v>0</v>
+      </c>
+      <c r="L19" s="4">
+        <v>0</v>
+      </c>
+      <c r="M19" s="4">
+        <v>0</v>
+      </c>
+      <c r="N19" s="4">
+        <v>0</v>
+      </c>
+      <c r="O19" s="4">
+        <v>0</v>
+      </c>
+      <c r="P19" s="4">
+        <v>0.35</v>
+      </c>
+      <c r="Q19" s="4">
+        <v>-0.1199999999999999</v>
+      </c>
+      <c r="R19" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="S19" s="4">
+        <v>-0</v>
+      </c>
+      <c r="T19" s="4">
+        <v>4.829999999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" s="3">
+        <v>19</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="E20" s="4">
+        <v>0</v>
+      </c>
+      <c r="F20" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="G20" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="H20" s="4">
+        <v>0</v>
+      </c>
+      <c r="I20" s="4">
+        <v>2</v>
+      </c>
+      <c r="J20" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="K20" s="4">
+        <v>0</v>
+      </c>
+      <c r="L20" s="4">
+        <v>1</v>
+      </c>
+      <c r="M20" s="4">
+        <v>0</v>
+      </c>
+      <c r="N20" s="4">
+        <v>0</v>
+      </c>
+      <c r="O20" s="4">
+        <v>0</v>
+      </c>
+      <c r="P20" s="4">
+        <v>0.257142857142857</v>
+      </c>
+      <c r="Q20" s="4">
+        <v>0.125</v>
+      </c>
+      <c r="R20" s="4">
+        <v>0</v>
+      </c>
+      <c r="S20" s="4">
+        <v>-0.5</v>
+      </c>
+      <c r="T20" s="4">
+        <v>4.282142857142857</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" s="3">
+        <v>20</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E21" s="4">
+        <v>0</v>
+      </c>
+      <c r="F21" s="4">
+        <v>0</v>
+      </c>
+      <c r="G21" s="4">
+        <v>0</v>
+      </c>
+      <c r="H21" s="4">
+        <v>0</v>
+      </c>
+      <c r="I21" s="4">
+        <v>1</v>
+      </c>
+      <c r="J21" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="K21" s="4">
+        <v>0</v>
+      </c>
+      <c r="L21" s="4">
+        <v>0</v>
+      </c>
+      <c r="M21" s="4">
+        <v>0</v>
+      </c>
+      <c r="N21" s="4">
+        <v>0</v>
+      </c>
+      <c r="O21" s="4">
+        <v>0</v>
+      </c>
+      <c r="P21" s="4">
+        <v>1.15</v>
+      </c>
+      <c r="Q21" s="4">
+        <v>0.45</v>
+      </c>
+      <c r="R21" s="4">
+        <v>0.7000000000000001</v>
+      </c>
+      <c r="S21" s="4">
+        <v>-0</v>
+      </c>
+      <c r="T21" s="4">
+        <v>4.050000000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" s="3">
+        <v>21</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D22" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="E3" s="4">
-        <v>0</v>
-      </c>
-      <c r="F3" s="4">
-        <v>0</v>
-      </c>
-      <c r="G3" s="4">
+      <c r="E22" s="4">
+        <v>0</v>
+      </c>
+      <c r="F22" s="4">
+        <v>0</v>
+      </c>
+      <c r="G22" s="4">
         <v>0.25</v>
       </c>
-      <c r="H3" s="4">
-        <v>0</v>
-      </c>
-      <c r="I3" s="4">
-        <v>1</v>
-      </c>
-      <c r="J3" s="4">
-        <v>0</v>
-      </c>
-      <c r="K3" s="4">
-        <v>0</v>
-      </c>
-      <c r="L3" s="4">
-        <v>2</v>
-      </c>
-      <c r="M3" s="4">
-        <v>0</v>
-      </c>
-      <c r="N3" s="4">
-        <v>0</v>
-      </c>
-      <c r="O3" s="4">
-        <v>0</v>
-      </c>
-      <c r="P3" s="4">
+      <c r="H22" s="4">
+        <v>0</v>
+      </c>
+      <c r="I22" s="4">
+        <v>1</v>
+      </c>
+      <c r="J22" s="4">
+        <v>0</v>
+      </c>
+      <c r="K22" s="4">
+        <v>0</v>
+      </c>
+      <c r="L22" s="4">
+        <v>2</v>
+      </c>
+      <c r="M22" s="4">
+        <v>0</v>
+      </c>
+      <c r="N22" s="4">
+        <v>0</v>
+      </c>
+      <c r="O22" s="4">
+        <v>0</v>
+      </c>
+      <c r="P22" s="4">
         <v>-0.35</v>
       </c>
-      <c r="Q3" s="4">
+      <c r="Q22" s="4">
         <v>0.9</v>
       </c>
-      <c r="R3" s="4">
+      <c r="R22" s="4">
         <v>0.5</v>
       </c>
-      <c r="S3" s="4">
+      <c r="S22" s="4">
         <v>-0.5</v>
       </c>
-      <c r="T3" s="4">
+      <c r="T22" s="4">
         <v>3.8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" s="3">
+        <v>22</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E23" s="4">
+        <v>0</v>
+      </c>
+      <c r="F23" s="4">
+        <v>0</v>
+      </c>
+      <c r="G23" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="H23" s="4">
+        <v>0</v>
+      </c>
+      <c r="I23" s="4">
+        <v>1</v>
+      </c>
+      <c r="J23" s="4">
+        <v>0</v>
+      </c>
+      <c r="K23" s="4">
+        <v>0</v>
+      </c>
+      <c r="L23" s="4">
+        <v>1</v>
+      </c>
+      <c r="M23" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="N23" s="4">
+        <v>0</v>
+      </c>
+      <c r="O23" s="4">
+        <v>0</v>
+      </c>
+      <c r="P23" s="4">
+        <v>0.2799999999999997</v>
+      </c>
+      <c r="Q23" s="4">
+        <v>-1</v>
+      </c>
+      <c r="R23" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="S23" s="4">
+        <v>-0</v>
+      </c>
+      <c r="T23" s="4">
+        <v>3.03</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" s="3">
+        <v>23</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E24" s="4">
+        <v>0</v>
+      </c>
+      <c r="F24" s="4">
+        <v>0</v>
+      </c>
+      <c r="G24" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="H24" s="4">
+        <v>0</v>
+      </c>
+      <c r="I24" s="4">
+        <v>2</v>
+      </c>
+      <c r="J24" s="4">
+        <v>0</v>
+      </c>
+      <c r="K24" s="4">
+        <v>0</v>
+      </c>
+      <c r="L24" s="4">
+        <v>1</v>
+      </c>
+      <c r="M24" s="4">
+        <v>0</v>
+      </c>
+      <c r="N24" s="4">
+        <v>0</v>
+      </c>
+      <c r="O24" s="4">
+        <v>0</v>
+      </c>
+      <c r="P24" s="4">
+        <v>0.4333333333333336</v>
+      </c>
+      <c r="Q24" s="4">
+        <v>-0.5</v>
+      </c>
+      <c r="R24" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="S24" s="4">
+        <v>-0.5</v>
+      </c>
+      <c r="T24" s="4">
+        <v>2.983333333333333</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" s="3">
+        <v>24</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E25" s="4">
+        <v>0</v>
+      </c>
+      <c r="F25" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="G25" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="H25" s="4">
+        <v>0.15</v>
+      </c>
+      <c r="I25" s="4">
+        <v>1</v>
+      </c>
+      <c r="J25" s="4">
+        <v>0</v>
+      </c>
+      <c r="K25" s="4">
+        <v>0</v>
+      </c>
+      <c r="L25" s="4">
+        <v>0</v>
+      </c>
+      <c r="M25" s="4">
+        <v>0</v>
+      </c>
+      <c r="N25" s="4">
+        <v>0</v>
+      </c>
+      <c r="O25" s="4">
+        <v>0</v>
+      </c>
+      <c r="P25" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="Q25" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="R25" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="S25" s="4">
+        <v>-0.5</v>
+      </c>
+      <c r="T25" s="4">
+        <v>2.75</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" s="3">
+        <v>25</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="E26" s="4">
+        <v>0</v>
+      </c>
+      <c r="F26" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="G26" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="H26" s="4">
+        <v>0.15</v>
+      </c>
+      <c r="I26" s="4">
+        <v>1</v>
+      </c>
+      <c r="J26" s="4">
+        <v>0</v>
+      </c>
+      <c r="K26" s="4">
+        <v>0</v>
+      </c>
+      <c r="L26" s="4">
+        <v>1</v>
+      </c>
+      <c r="M26" s="4">
+        <v>0</v>
+      </c>
+      <c r="N26" s="4">
+        <v>0</v>
+      </c>
+      <c r="O26" s="4">
+        <v>0</v>
+      </c>
+      <c r="P26" s="4">
+        <v>-0.65</v>
+      </c>
+      <c r="Q26" s="4">
+        <v>-0</v>
+      </c>
+      <c r="R26" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="S26" s="4">
+        <v>-0</v>
+      </c>
+      <c r="T26" s="4">
+        <v>2.55</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" s="3">
+        <v>26</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="E27" s="4">
+        <v>0</v>
+      </c>
+      <c r="F27" s="4">
+        <v>0</v>
+      </c>
+      <c r="G27" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="H27" s="4">
+        <v>0</v>
+      </c>
+      <c r="I27" s="4">
+        <v>0</v>
+      </c>
+      <c r="J27" s="4">
+        <v>0</v>
+      </c>
+      <c r="K27" s="4">
+        <v>0</v>
+      </c>
+      <c r="L27" s="4">
+        <v>1</v>
+      </c>
+      <c r="M27" s="4">
+        <v>0</v>
+      </c>
+      <c r="N27" s="4">
+        <v>0</v>
+      </c>
+      <c r="O27" s="4">
+        <v>0</v>
+      </c>
+      <c r="P27" s="4">
+        <v>-0.4666666666666665</v>
+      </c>
+      <c r="Q27" s="4">
+        <v>0</v>
+      </c>
+      <c r="R27" s="4">
+        <v>0.6000000000000001</v>
+      </c>
+      <c r="S27" s="4">
+        <v>-0</v>
+      </c>
+      <c r="T27" s="4">
+        <v>1.883333333333334</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" s="3">
+        <v>27</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E28" s="4">
+        <v>0</v>
+      </c>
+      <c r="F28" s="4">
+        <v>0</v>
+      </c>
+      <c r="G28" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="H28" s="4">
+        <v>0</v>
+      </c>
+      <c r="I28" s="4">
+        <v>0</v>
+      </c>
+      <c r="J28" s="4">
+        <v>0</v>
+      </c>
+      <c r="K28" s="4">
+        <v>0</v>
+      </c>
+      <c r="L28" s="4">
+        <v>1</v>
+      </c>
+      <c r="M28" s="4">
+        <v>0</v>
+      </c>
+      <c r="N28" s="4">
+        <v>0</v>
+      </c>
+      <c r="O28" s="4">
+        <v>0</v>
+      </c>
+      <c r="P28" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="Q28" s="4">
+        <v>-0.1</v>
+      </c>
+      <c r="R28" s="4">
+        <v>0.6000000000000001</v>
+      </c>
+      <c r="S28" s="4">
+        <v>-0</v>
+      </c>
+      <c r="T28" s="4">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" s="3">
+        <v>28</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E29" s="4">
+        <v>0</v>
+      </c>
+      <c r="F29" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="G29" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="H29" s="4">
+        <v>0</v>
+      </c>
+      <c r="I29" s="4">
+        <v>1</v>
+      </c>
+      <c r="J29" s="4">
+        <v>0</v>
+      </c>
+      <c r="K29" s="4">
+        <v>0</v>
+      </c>
+      <c r="L29" s="4">
+        <v>0</v>
+      </c>
+      <c r="M29" s="4">
+        <v>0</v>
+      </c>
+      <c r="N29" s="4">
+        <v>0</v>
+      </c>
+      <c r="O29" s="4">
+        <v>0</v>
+      </c>
+      <c r="P29" s="4">
+        <v>-0.2</v>
+      </c>
+      <c r="Q29" s="4">
+        <v>-0.3</v>
+      </c>
+      <c r="R29" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="S29" s="4">
+        <v>-0</v>
+      </c>
+      <c r="T29" s="4">
+        <v>1.45</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" s="3">
+        <v>29</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E30" s="4">
+        <v>0</v>
+      </c>
+      <c r="F30" s="4">
+        <v>0</v>
+      </c>
+      <c r="G30" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="H30" s="4">
+        <v>0</v>
+      </c>
+      <c r="I30" s="4">
+        <v>0</v>
+      </c>
+      <c r="J30" s="4">
+        <v>0</v>
+      </c>
+      <c r="K30" s="4">
+        <v>0</v>
+      </c>
+      <c r="L30" s="4">
+        <v>0</v>
+      </c>
+      <c r="M30" s="4">
+        <v>0</v>
+      </c>
+      <c r="N30" s="4">
+        <v>0</v>
+      </c>
+      <c r="O30" s="4">
+        <v>0</v>
+      </c>
+      <c r="P30" s="4">
+        <v>-0.425</v>
+      </c>
+      <c r="Q30" s="4">
+        <v>0</v>
+      </c>
+      <c r="R30" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="S30" s="4">
+        <v>-0</v>
+      </c>
+      <c r="T30" s="4">
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" s="3">
+        <v>30</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E31" s="4">
+        <v>0</v>
+      </c>
+      <c r="F31" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="G31" s="4">
+        <v>0</v>
+      </c>
+      <c r="H31" s="4">
+        <v>0</v>
+      </c>
+      <c r="I31" s="4">
+        <v>0</v>
+      </c>
+      <c r="J31" s="4">
+        <v>0</v>
+      </c>
+      <c r="K31" s="4">
+        <v>0</v>
+      </c>
+      <c r="L31" s="4">
+        <v>0</v>
+      </c>
+      <c r="M31" s="4">
+        <v>0</v>
+      </c>
+      <c r="N31" s="4">
+        <v>0</v>
+      </c>
+      <c r="O31" s="4">
+        <v>0</v>
+      </c>
+      <c r="P31" s="4">
+        <v>-0.3333333333333336</v>
+      </c>
+      <c r="Q31" s="4">
+        <v>-0.1</v>
+      </c>
+      <c r="R31" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="S31" s="4">
+        <v>-0</v>
+      </c>
+      <c r="T31" s="4">
+        <v>0.3666666666666665</v>
       </c>
     </row>
   </sheetData>
